--- a/RelicStatsExcel.xlsx
+++ b/RelicStatsExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\widerw\OneDrive\College\Sophomore\Semester 2\Multi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\widerw\OneDrive\College\Sophomore\Semester 2\Multi\projectRelicStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>player</t>
   </si>
@@ -360,13 +360,16 @@
   </si>
   <si>
     <t>total players = 85</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,25 +386,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -426,40 +415,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF4D7326"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF849B24"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FFCC7A00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF4099BF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -496,20 +451,6 @@
     <font>
       <b/>
       <sz val="6.5"/>
-      <color rgb="FF3972C6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FFCCB800"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
       <color rgb="FFCCB800"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -518,31 +459,10 @@
     <font>
       <b/>
       <sz val="6.5"/>
-      <color rgb="FFCD3333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF930D0D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
       <color rgb="FFCC7A00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -563,9 +483,17 @@
     <font>
       <b/>
       <sz val="6.5"/>
-      <color rgb="FF793DB6"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -648,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -671,262 +599,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,3280 +1163,3717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q90"/>
+  <dimension ref="B1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="13" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="2:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="O4" s="8" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="P4" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>7</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>8</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>9</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>10</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="N5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="39" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="T5" s="87"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>0.35</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>0.51839999999999997</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>0.52910000000000001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>0.53180000000000005</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="8">
         <v>0.51390000000000002</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>0.52559999999999996</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="8">
         <v>0.50280000000000002</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="8">
         <v>0.50749999999999995</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="19">
         <v>0.51</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="8">
         <v>0.50260000000000005</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="N6" s="76">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="R6" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="18" t="s">
+      <c r="T6" s="88"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="10">
         <v>0.35289999999999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>0.4471</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="42">
         <v>0.47539999999999999</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="42">
         <v>0.47310000000000002</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="43">
         <v>0.51470000000000005</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="43">
         <v>0.51990000000000003</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="44">
         <v>0.55469999999999997</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="42">
         <v>0.4753</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="45">
         <v>0.53749999999999998</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="42">
         <v>0.4733</v>
       </c>
-      <c r="O7" s="24">
+      <c r="N7" s="77">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="P7" s="46">
         <v>0.46</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="Q7" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="48">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="10" t="s">
+      <c r="T7" s="87"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="11">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="12">
         <v>0.43480000000000002</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>0.52080000000000004</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="20">
         <v>0.47560000000000002</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>0.53820000000000001</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>0.5383</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>0.53869999999999996</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="8">
         <v>0.51859999999999995</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="26">
         <v>0.54120000000000001</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="26">
         <v>0.54630000000000001</v>
       </c>
-      <c r="O8" s="31">
+      <c r="N8" s="78">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="P8" s="49">
         <v>0.47</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="Q8" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="R8" s="51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="18" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="13">
         <v>0.53849999999999998</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="13">
         <v>0.53539999999999999</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="45">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="45">
         <v>0.52200000000000002</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="44">
         <v>0.55300000000000005</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="45">
         <v>0.53010000000000002</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="44">
         <v>0.54659999999999997</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="45">
         <v>0.52410000000000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="45">
         <v>0.52759999999999996</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="52">
         <v>0.5</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="N9" s="79">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="P9" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="Q9" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="R9" s="54">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="T9" s="87"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="14">
         <v>0.61109999999999998</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="15">
         <v>0.58079999999999998</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>0.51910000000000001</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="8">
         <v>0.50980000000000003</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>0.52639999999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>0.52439999999999998</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="26">
         <v>0.54200000000000004</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>0.52480000000000004</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>0.52900000000000003</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="26">
         <v>0.54649999999999999</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="N10" s="78">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="P10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="Q10" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="R10" s="56">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="18" t="s">
+      <c r="T10" s="88"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="16">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="17">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="57">
         <v>0.57020000000000004</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="43">
         <v>0.51449999999999996</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="44">
         <v>0.55189999999999995</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="57">
         <v>0.58140000000000003</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="57">
         <v>0.57330000000000003</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="57">
         <v>0.56559999999999999</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="57">
         <v>0.57420000000000004</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="57">
         <v>0.56730000000000003</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="N11" s="80">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="P11" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="Q11" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="R11" s="59">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="T11" s="87"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="15">
         <v>0.58989999999999998</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>0.50439999999999996</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="30">
         <v>0.4884</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="19">
         <v>0.5</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="8">
         <v>0.50349999999999995</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="26">
         <v>0.5494</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="26">
         <v>0.54949999999999999</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>0.53720000000000001</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>0.52349999999999997</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="8">
         <v>0.51400000000000001</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="N12" s="78">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="P12" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="48" t="s">
+      <c r="Q12" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="R12" s="61">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="18" t="s">
+      <c r="T12" s="88"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="18">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="18">
         <v>0.4899</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="43">
         <v>0.50419999999999998</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="45">
         <v>0.52349999999999997</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="43">
         <v>0.51459999999999995</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="62">
         <v>0.52</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="45">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="44">
         <v>0.54339999999999999</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="45">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="45">
         <v>0.52610000000000001</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="N13" s="79">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="P13" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="Q13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="R13" s="64">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="10" t="s">
+      <c r="T13" s="87"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="12">
         <v>0.42859999999999998</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="19">
         <v>0.5</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="25">
         <v>0.46010000000000001</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="20">
         <v>0.47839999999999999</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="8">
         <v>0.50900000000000001</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="8">
         <v>0.50049999999999994</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="26">
         <v>0.55520000000000003</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="26">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="26">
         <v>0.55759999999999998</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="12">
         <v>0.45850000000000002</v>
       </c>
-      <c r="O14" s="57" t="s">
+      <c r="N14" s="78">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="P14" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="Q14" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="R14" s="66">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="18" t="s">
+      <c r="T14" s="88"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="13">
         <v>0.52110000000000001</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="17">
         <v>0.54220000000000002</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="57">
         <v>0.56289999999999996</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="44">
         <v>0.55859999999999999</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="57">
         <v>0.56759999999999999</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="44">
         <v>0.5413</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="57">
         <v>0.56259999999999999</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="45">
         <v>0.52859999999999996</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="43">
         <v>0.51219999999999999</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="43">
         <v>0.51739999999999997</v>
       </c>
-      <c r="O15" s="59" t="s">
+      <c r="N15" s="81">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="P15" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="59" t="s">
+      <c r="Q15" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="R15" s="68">
         <v>0.99990000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="T15" s="87"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="12">
         <v>0.45710000000000001</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="20">
         <v>0.47270000000000001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>0.52370000000000005</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="8">
         <v>0.51870000000000005</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="8">
         <v>0.50609999999999999</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <v>0.53220000000000001</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>0.5363</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <v>0.54600000000000004</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <v>0.54979999999999996</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="11">
         <v>0.53129999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="18" t="s">
+      <c r="N16" s="78">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="T16" s="88"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="21">
         <v>0.60550000000000004</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="13">
         <v>0.5212</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="44">
         <v>0.55310000000000004</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="43">
         <v>0.50890000000000002</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="43">
         <v>0.51670000000000005</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="57">
         <v>0.56640000000000001</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="44">
         <v>0.55379999999999996</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="44">
         <v>0.55579999999999996</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="44">
         <v>0.54449999999999998</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="57">
         <v>0.58120000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-      <c r="C18" s="10" t="s">
+      <c r="N17" s="81">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="T17" s="87"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="20">
         <v>0.47539999999999999</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="15">
         <v>0.57040000000000002</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>0.52359999999999995</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>0.52259999999999995</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="30">
         <v>0.48709999999999998</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>0.53220000000000001</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="26">
         <v>0.5504</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="8">
         <v>0.50649999999999995</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="30">
         <v>0.4965</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="30">
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="18" t="s">
+      <c r="N18" s="76">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="T18" s="88"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="17">
         <v>0.54700000000000004</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="17">
         <v>0.54020000000000001</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="45">
         <v>0.5393</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="43">
         <v>0.51959999999999995</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="45">
         <v>0.52249999999999996</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="45">
         <v>0.52149999999999996</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="43">
         <v>0.51349999999999996</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="69">
         <v>0.49859999999999999</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="43">
         <v>0.50729999999999997</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="69">
         <v>0.48259999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="N19" s="77">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="T19" s="87"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="14">
         <v>0.6129</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="11">
         <v>0.5272</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="8">
         <v>0.51270000000000004</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="30">
         <v>0.48549999999999999</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="8">
         <v>0.51200000000000001</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="8">
         <v>0.51370000000000005</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="26">
         <v>0.55359999999999998</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="15">
         <v>0.59450000000000003</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="8">
         <v>0.50439999999999996</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
+      <c r="N20" s="78">
+        <v>0.5232</v>
+      </c>
+      <c r="T20" s="88"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="22">
         <v>0.47189999999999999</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="23">
         <v>0.51770000000000005</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="43">
         <v>0.50519999999999998</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="69">
         <v>0.48920000000000002</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="44">
         <v>0.54079999999999995</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="44">
         <v>0.54979999999999996</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="45">
         <v>0.53049999999999997</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="44">
         <v>0.55269999999999997</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="44">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="57">
         <v>0.56020000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
+      <c r="N21" s="79">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="T21" s="87"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="11">
         <v>0.52329999999999999</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="19">
         <v>0.5</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="26">
         <v>0.54520000000000002</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="15">
         <v>0.58860000000000001</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="26">
         <v>0.5585</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <v>0.52690000000000003</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="8">
         <v>0.51539999999999997</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <v>0.53120000000000001</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="8">
         <v>0.51359999999999995</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="8">
         <v>0.50860000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="18" t="s">
+      <c r="N22" s="78">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="T22" s="88"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="24">
         <v>0.62</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="16">
         <v>0.57069999999999999</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="57">
         <v>0.5837</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="57">
         <v>0.56789999999999996</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="57">
         <v>0.56869999999999998</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="44">
         <v>0.55220000000000002</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="45">
         <v>0.5323</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="45">
         <v>0.53779999999999994</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="44">
         <v>0.54090000000000005</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="44">
         <v>0.54530000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
+      <c r="N23" s="81">
+        <v>0.5464</v>
+      </c>
+      <c r="T23" s="87"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="25">
         <v>0.46150000000000002</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="26">
         <v>0.5494</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>0.5393</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="26">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <v>0.53659999999999997</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="26">
         <v>0.5474</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="26">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="26">
         <v>0.55230000000000001</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="26">
         <v>0.54269999999999996</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="11">
         <v>0.53039999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="18" t="s">
+      <c r="N24" s="82">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="T24" s="88"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="13">
         <v>0.5333</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="23">
         <v>0.51519999999999999</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="69">
         <v>0.49790000000000001</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="44">
         <v>0.54720000000000002</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="43">
         <v>0.51370000000000005</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="43">
         <v>0.50980000000000003</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="43">
         <v>0.50470000000000004</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="45">
         <v>0.52510000000000001</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="45">
         <v>0.53200000000000003</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="45">
         <v>0.52990000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
+      <c r="N25" s="79">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="T25" s="87"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="12">
         <v>0.2727</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="12">
         <v>0.44879999999999998</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="8">
         <v>0.50090000000000001</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="25">
         <v>0.46820000000000001</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="8">
         <v>0.51490000000000002</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="30">
         <v>0.4899</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>0.52839999999999998</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="8">
         <v>0.51919999999999999</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="8">
         <v>0.51539999999999997</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="30">
         <v>0.4975</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="18" t="s">
+      <c r="N26" s="76">
+        <v>0.503</v>
+      </c>
+      <c r="T26" s="88"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>0.43959999999999999</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="23">
         <v>0.51380000000000003</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="45">
         <v>0.52710000000000001</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="69">
         <v>0.49349999999999999</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="43">
         <v>0.51619999999999999</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="43">
         <v>0.51819999999999999</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="43">
         <v>0.50080000000000002</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="45">
         <v>0.52080000000000004</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="44">
         <v>0.55269999999999997</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="43">
         <v>0.51190000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="10" t="s">
+      <c r="N27" s="77">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="T27" s="87"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="27">
         <v>0.7</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="28">
         <v>0.6</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <v>0.54390000000000005</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="26">
         <v>0.55069999999999997</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="15">
         <v>0.56640000000000001</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="15">
         <v>0.57210000000000005</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>0.53190000000000004</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>0.52080000000000004</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>0.5292</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="30">
         <v>0.49909999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="18" t="s">
+      <c r="N28" s="78">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="T28" s="88"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>0.45710000000000001</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="13">
         <v>0.52259999999999995</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="69">
         <v>0.49109999999999998</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="45">
         <v>0.5353</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="45">
         <v>0.53620000000000001</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="45">
         <v>0.53590000000000004</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="44">
         <v>0.54430000000000001</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="45">
         <v>0.53669999999999995</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="45">
         <v>0.52969999999999995</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="45">
         <v>0.53010000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
+      <c r="N29" s="79">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="T29" s="87"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="12">
         <v>0.4118</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="12">
         <v>0.43730000000000002</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="8">
         <v>0.50180000000000002</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="26">
         <v>0.54110000000000003</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="26">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <v>0.52859999999999996</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="8">
         <v>0.51980000000000004</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <v>0.53290000000000004</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="30">
         <v>0.49259999999999998</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="20">
         <v>0.4713</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="18" t="s">
+      <c r="N30" s="76">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="T30" s="88"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="16">
         <v>0.59260000000000002</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="17">
         <v>0.54010000000000002</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="43">
         <v>0.50529999999999997</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="43">
         <v>0.51380000000000003</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="45">
         <v>0.52259999999999995</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="44">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="44">
         <v>0.54559999999999997</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="45">
         <v>0.53149999999999997</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="44">
         <v>0.54359999999999997</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="44">
         <v>0.55089999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="10" t="s">
+      <c r="N31" s="79">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="T31" s="87"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="14">
         <v>0.60619999999999996</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="11">
         <v>0.5323</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="8">
         <v>0.50629999999999997</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="30">
         <v>0.4955</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="8">
         <v>0.51829999999999998</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <v>0.54359999999999997</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>0.52470000000000006</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="11">
         <v>0.53800000000000003</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="8">
         <v>0.51859999999999995</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="19">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="18" t="s">
+      <c r="N32" s="78">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="T32" s="88"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="17">
         <v>0.54139999999999999</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="17">
         <v>0.55110000000000003</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="57">
         <v>0.56240000000000001</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="57">
         <v>0.57420000000000004</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="45">
         <v>0.53480000000000005</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="57">
         <v>0.57350000000000001</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="45">
         <v>0.53920000000000001</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="44">
         <v>0.54010000000000002</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="44">
         <v>0.54390000000000005</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="45">
         <v>0.53520000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="10" t="s">
+      <c r="N33" s="81">
+        <v>0.5444</v>
+      </c>
+      <c r="T33" s="87"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="12">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="11">
         <v>0.53280000000000005</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="15">
         <v>0.5645</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="20">
         <v>0.47770000000000001</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>0.52170000000000005</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="15">
         <v>0.57640000000000002</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="26">
         <v>0.54479999999999995</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="26">
         <v>0.54949999999999999</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="8">
         <v>0.51829999999999998</v>
       </c>
-      <c r="M34" s="55">
+      <c r="M34" s="25">
         <v>0.46029999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="18" t="s">
+      <c r="N34" s="82">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="T34" s="88"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="13">
         <v>0.52410000000000001</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="16">
         <v>0.56569999999999998</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="45">
         <v>0.52329999999999999</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="45">
         <v>0.5363</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="44">
         <v>0.54369999999999996</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="43">
         <v>0.51670000000000005</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="43">
         <v>0.502</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="43">
         <v>0.51229999999999998</v>
       </c>
-      <c r="L35" s="63">
+      <c r="L35" s="69">
         <v>0.48720000000000002</v>
       </c>
-      <c r="M35" s="63">
+      <c r="M35" s="69">
         <v>0.4849</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="10" t="s">
+      <c r="N35" s="77">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="T35" s="87"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="12">
         <v>0.42859999999999998</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="11">
         <v>0.53490000000000004</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>0.52270000000000005</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="8">
         <v>0.51249999999999996</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="19">
         <v>0.5</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <v>0.52149999999999996</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="26">
         <v>0.54220000000000002</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <v>0.52490000000000003</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="26">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="8">
         <v>0.51519999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="18" t="s">
+      <c r="N36" s="78">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="T36" s="88"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="29">
         <v>0.46129999999999999</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="23">
         <v>0.50090000000000001</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="45">
         <v>0.53069999999999995</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="42">
         <v>0.47839999999999999</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="43">
         <v>0.51900000000000002</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="43">
         <v>0.50270000000000004</v>
       </c>
-      <c r="J37" s="63">
+      <c r="J37" s="69">
         <v>0.49099999999999999</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="43">
         <v>0.50290000000000001</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="45">
         <v>0.52890000000000004</v>
       </c>
-      <c r="M37" s="63">
+      <c r="M37" s="69">
         <v>0.49380000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="5"/>
-      <c r="C38" s="10" t="s">
+      <c r="N37" s="77">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="T37" s="87"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="12">
         <v>0.44869999999999999</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="12">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="30">
         <v>0.4824</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="30">
         <v>0.49930000000000002</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="26">
         <v>0.54139999999999999</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="8">
         <v>0.51359999999999995</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="8">
         <v>0.50949999999999995</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="8">
         <v>0.50700000000000001</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="30">
         <v>0.4864</v>
       </c>
-      <c r="M38" s="56">
+      <c r="M38" s="12">
         <v>0.4461</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="18" t="s">
+      <c r="N38" s="76">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="T38" s="88"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="16">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="23">
         <v>0.50980000000000003</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="71">
         <v>0.47</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="69">
         <v>0.49890000000000001</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="44">
         <v>0.55659999999999998</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="57">
         <v>0.56340000000000001</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="45">
         <v>0.52339999999999998</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="45">
         <v>0.53849999999999998</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="44">
         <v>0.54830000000000001</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="43">
         <v>0.51959999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="5"/>
-      <c r="C40" s="10" t="s">
+      <c r="N39" s="79">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="T39" s="87"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="30">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="8">
         <v>0.51060000000000005</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="20">
         <v>0.4763</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>0.53039999999999998</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>0.53359999999999996</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="11">
         <v>0.52329999999999999</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>0.52669999999999995</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>0.53259999999999996</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>0.53369999999999995</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="8">
         <v>0.51219999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="5"/>
-      <c r="C41" s="18" t="s">
+      <c r="N40" s="78">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="T40" s="88"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="31">
         <v>0.71430000000000005</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="21">
         <v>0.60929999999999995</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="45">
         <v>0.52290000000000003</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="72">
         <v>0.61199999999999999</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="57">
         <v>0.5897</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="57">
         <v>0.58450000000000002</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="57">
         <v>0.57509999999999994</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="57">
         <v>0.58460000000000001</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="57">
         <v>0.58420000000000005</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="57">
         <v>0.57020000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="5"/>
-      <c r="C42" s="10" t="s">
+      <c r="N41" s="80">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="T41" s="87"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="15">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="8">
         <v>0.50790000000000002</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="30">
         <v>0.48130000000000001</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="26">
         <v>0.54369999999999996</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="8">
         <v>0.50900000000000001</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="8">
         <v>0.50390000000000001</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="30">
         <v>0.49919999999999998</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="8">
         <v>0.50780000000000003</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="8">
         <v>0.50029999999999997</v>
       </c>
-      <c r="M42" s="47">
+      <c r="M42" s="30">
         <v>0.4924</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="5"/>
-      <c r="C43" s="18" t="s">
+      <c r="N42" s="83">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="T42" s="88"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="21">
         <v>0.61880000000000002</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="16">
         <v>0.58550000000000002</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="57">
         <v>0.5978</v>
       </c>
-      <c r="G43" s="44">
+      <c r="G43" s="57">
         <v>0.56100000000000005</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="45">
         <v>0.52829999999999999</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="45">
         <v>0.53549999999999998</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="45">
         <v>0.52969999999999995</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="43">
         <v>0.51259999999999994</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="43">
         <v>0.51339999999999997</v>
       </c>
-      <c r="M43" s="63">
+      <c r="M43" s="69">
         <v>0.48809999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="5"/>
-      <c r="C44" s="10" t="s">
+      <c r="N43" s="79">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="T43" s="87"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="15">
         <v>0.56910000000000005</v>
       </c>
-      <c r="E44" s="75">
+      <c r="E44" s="30">
         <v>0.48649999999999999</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>0.53190000000000004</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>0.52100000000000002</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>0.5393</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="26">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="26">
         <v>0.54059999999999997</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="26">
         <v>0.54820000000000002</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="11">
         <v>0.53979999999999995</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M44" s="20">
         <v>0.47939999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="18" t="s">
+      <c r="N44" s="82">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="T44" s="88"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="16">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="17">
         <v>0.54310000000000003</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="69">
         <v>0.48659999999999998</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="42">
         <v>0.47870000000000001</v>
       </c>
-      <c r="H45" s="63">
+      <c r="H45" s="69">
         <v>0.48409999999999997</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="44">
         <v>0.54949999999999999</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="43">
         <v>0.50290000000000001</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="45">
         <v>0.52829999999999999</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="45">
         <v>0.53320000000000001</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="43">
         <v>0.50480000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="5"/>
-      <c r="C46" s="10" t="s">
+      <c r="N45" s="79">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="T45" s="87"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="15">
         <v>0.57310000000000005</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="15">
         <v>0.57330000000000003</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="15">
         <v>0.56530000000000002</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="30">
         <v>0.49530000000000002</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="26">
         <v>0.54369999999999996</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="26">
         <v>0.55389999999999995</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="26">
         <v>0.55479999999999996</v>
       </c>
-      <c r="K46" s="64">
+      <c r="K46" s="15">
         <v>0.58750000000000002</v>
       </c>
-      <c r="L46" s="78">
+      <c r="L46" s="14">
         <v>0.61439999999999995</v>
       </c>
-      <c r="M46" s="78">
+      <c r="M46" s="14">
         <v>0.60029999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="18" t="s">
+      <c r="N46" s="84">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T46" s="88"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="22">
         <v>0.47249999999999998</v>
       </c>
-      <c r="E47" s="79">
+      <c r="E47" s="32">
         <v>0.54</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="44">
         <v>0.5454</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="45">
         <v>0.52129999999999999</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="57">
         <v>0.56769999999999998</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="45">
         <v>0.53620000000000001</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="45">
         <v>0.53500000000000003</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="45">
         <v>0.52949999999999997</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="45">
         <v>0.52600000000000002</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="43">
         <v>0.51649999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="5"/>
-      <c r="C48" s="10" t="s">
+      <c r="N47" s="79">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="T47" s="87"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="19">
         <v>0.5</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="8">
         <v>0.50249999999999995</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="8">
         <v>0.50939999999999996</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="73">
         <v>0.52</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="26">
         <v>0.55769999999999997</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="26">
         <v>0.55530000000000002</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="26">
         <v>0.55910000000000004</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="15">
         <v>0.56589999999999996</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="26">
         <v>0.54520000000000002</v>
       </c>
-      <c r="M48" s="64">
+      <c r="M48" s="15">
         <v>0.56730000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="5"/>
-      <c r="C49" s="18" t="s">
+      <c r="N48" s="82">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="T48" s="88"/>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="16">
         <v>0.56520000000000004</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="16">
         <v>0.57010000000000005</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="57">
         <v>0.58160000000000001</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="43">
         <v>0.50309999999999999</v>
       </c>
-      <c r="H49" s="44">
+      <c r="H49" s="57">
         <v>0.56320000000000003</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="44">
         <v>0.55610000000000004</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="43">
         <v>0.51639999999999997</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="45">
         <v>0.53469999999999995</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="45">
         <v>0.52669999999999995</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="43">
         <v>0.50780000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="5"/>
-      <c r="C50" s="10" t="s">
+      <c r="N49" s="79">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="T49" s="87"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="15">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="11">
         <v>0.52290000000000003</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="11">
         <v>0.52490000000000003</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="11">
         <v>0.5252</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="26">
         <v>0.54810000000000003</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="26">
         <v>0.55630000000000002</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="15">
         <v>0.56940000000000002</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="15">
         <v>0.57289999999999996</v>
       </c>
-      <c r="L50" s="64">
+      <c r="L50" s="15">
         <v>0.57509999999999994</v>
       </c>
-      <c r="M50" s="64">
+      <c r="M50" s="15">
         <v>0.56069999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="5"/>
-      <c r="C51" s="18" t="s">
+      <c r="N50" s="82">
+        <v>0.5585</v>
+      </c>
+      <c r="T50" s="88"/>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D51" s="16">
         <v>0.59209999999999996</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="17">
         <v>0.55710000000000004</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="57">
         <v>0.57310000000000005</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="43">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H51" s="44">
+      <c r="H51" s="57">
         <v>0.56530000000000002</v>
       </c>
-      <c r="I51" s="44">
+      <c r="I51" s="57">
         <v>0.59019999999999995</v>
       </c>
-      <c r="J51" s="44">
+      <c r="J51" s="57">
         <v>0.57720000000000005</v>
       </c>
-      <c r="K51" s="44">
+      <c r="K51" s="57">
         <v>0.56110000000000004</v>
       </c>
-      <c r="L51" s="44">
+      <c r="L51" s="57">
         <v>0.59060000000000001</v>
       </c>
-      <c r="M51" s="44">
+      <c r="M51" s="57">
         <v>0.5756</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="5"/>
-      <c r="C52" s="10" t="s">
+      <c r="N51" s="80">
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="T51" s="87"/>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="70">
+      <c r="D52" s="26">
         <v>0.54090000000000005</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="8">
         <v>0.51970000000000005</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="30">
         <v>0.48849999999999999</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="26">
         <v>0.54479999999999995</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="26">
         <v>0.55159999999999998</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="11">
         <v>0.53720000000000001</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="11">
         <v>0.52659999999999996</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K52" s="26">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="11">
         <v>0.52629999999999999</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="11">
         <v>0.53149999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="5"/>
-      <c r="C53" s="18" t="s">
+      <c r="N52" s="78">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="T52" s="88"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="23">
         <v>0.51349999999999996</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="10">
         <v>0.45150000000000001</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="43">
         <v>0.50249999999999995</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="43">
         <v>0.50960000000000005</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="43">
         <v>0.51049999999999995</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="45">
         <v>0.53469999999999995</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="44">
         <v>0.54490000000000005</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="45">
         <v>0.52539999999999998</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="45">
         <v>0.52449999999999997</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M53" s="43">
         <v>0.51690000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="5"/>
-      <c r="C54" s="10" t="s">
+      <c r="N53" s="79">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="T53" s="87"/>
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="30">
         <v>0.49059999999999998</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="20">
         <v>0.47099999999999997</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="11">
         <v>0.53420000000000001</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="74">
         <v>0.54</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="26">
         <v>0.55730000000000002</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="26">
         <v>0.54020000000000001</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="11">
         <v>0.53480000000000005</v>
       </c>
-      <c r="K54" s="30">
+      <c r="K54" s="26">
         <v>0.54459999999999997</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="26">
         <v>0.55289999999999995</v>
       </c>
-      <c r="M54" s="56">
+      <c r="M54" s="12">
         <v>0.44359999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="5"/>
-      <c r="C55" s="18" t="s">
+      <c r="N54" s="78">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="T54" s="88"/>
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="82">
+      <c r="D55" s="33">
         <v>0.5</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="17">
         <v>0.55759999999999998</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="69">
         <v>0.4834</v>
       </c>
-      <c r="G55" s="83">
+      <c r="G55" s="75">
         <v>0.44590000000000002</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="43">
         <v>0.51019999999999999</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="43">
         <v>0.51570000000000005</v>
       </c>
-      <c r="J55" s="63">
+      <c r="J55" s="69">
         <v>0.48959999999999998</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="43">
         <v>0.51539999999999997</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="42">
         <v>0.47649999999999998</v>
       </c>
-      <c r="M55" s="63">
+      <c r="M55" s="69">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="5"/>
-      <c r="C56" s="10" t="s">
+      <c r="N55" s="77">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="T55" s="87"/>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="12">
         <v>0.42549999999999999</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="12">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="12">
         <v>0.45800000000000002</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="20">
         <v>0.47139999999999999</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="30">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I56" s="47">
+      <c r="I56" s="30">
         <v>0.4955</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="11">
         <v>0.52610000000000001</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="11">
         <v>0.53659999999999997</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="11">
         <v>0.53129999999999999</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="8">
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="5"/>
-      <c r="C57" s="18" t="s">
+      <c r="N56" s="76">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="T56" s="88"/>
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="10">
         <v>0.42159999999999997</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="29">
         <v>0.46460000000000001</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="42">
         <v>0.47960000000000003</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="45">
         <v>0.5323</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="44">
         <v>0.54459999999999997</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="44">
         <v>0.55969999999999998</v>
       </c>
-      <c r="J57" s="44">
+      <c r="J57" s="57">
         <v>0.58050000000000002</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="44">
         <v>0.54749999999999999</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="44">
         <v>0.5514</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="42">
         <v>0.4773</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="5"/>
-      <c r="C58" s="10" t="s">
+      <c r="N57" s="81">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="T57" s="87"/>
+      <c r="U57" s="4"/>
+    </row>
+    <row r="58" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="75">
+      <c r="D58" s="30">
         <v>0.48570000000000002</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="8">
         <v>0.51319999999999999</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="11">
         <v>0.52780000000000005</v>
       </c>
-      <c r="G58" s="64">
+      <c r="G58" s="15">
         <v>0.56059999999999999</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="26">
         <v>0.55469999999999997</v>
       </c>
-      <c r="I58" s="64">
+      <c r="I58" s="15">
         <v>0.57120000000000004</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K58" s="64">
+      <c r="K58" s="15">
         <v>0.56769999999999998</v>
       </c>
-      <c r="L58" s="64">
+      <c r="L58" s="15">
         <v>0.59640000000000004</v>
       </c>
-      <c r="M58" s="64">
+      <c r="M58" s="15">
         <v>0.58050000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="5"/>
-      <c r="C59" s="18" t="s">
+      <c r="N58" s="84">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="T58" s="88"/>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D59" s="16">
         <v>0.56410000000000005</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="16">
         <v>0.59379999999999999</v>
       </c>
-      <c r="F59" s="77">
+      <c r="F59" s="72">
         <v>0.6008</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="44">
         <v>0.55079999999999996</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="44">
         <v>0.54910000000000003</v>
       </c>
-      <c r="I59" s="44">
+      <c r="I59" s="57">
         <v>0.57669999999999999</v>
       </c>
-      <c r="J59" s="44">
+      <c r="J59" s="57">
         <v>0.57120000000000004</v>
       </c>
-      <c r="K59" s="44">
+      <c r="K59" s="57">
         <v>0.56120000000000003</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="45">
         <v>0.53480000000000005</v>
       </c>
-      <c r="M59" s="21">
+      <c r="M59" s="43">
         <v>0.51570000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="5"/>
-      <c r="C60" s="10" t="s">
+      <c r="N59" s="80">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="T59" s="87"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="84">
+      <c r="D60" s="34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="15">
         <v>0.58760000000000001</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="20">
         <v>0.47749999999999998</v>
       </c>
-      <c r="G60" s="64">
+      <c r="G60" s="15">
         <v>0.57220000000000004</v>
       </c>
-      <c r="H60" s="64">
+      <c r="H60" s="15">
         <v>0.57709999999999995</v>
       </c>
-      <c r="I60" s="85">
+      <c r="I60" s="34">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J60" s="64">
+      <c r="J60" s="15">
         <v>0.56040000000000001</v>
       </c>
-      <c r="K60" s="30">
+      <c r="K60" s="26">
         <v>0.55820000000000003</v>
       </c>
-      <c r="L60" s="64">
+      <c r="L60" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="11">
         <v>0.52990000000000004</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="5"/>
-      <c r="C61" s="18" t="s">
+      <c r="N60" s="84">
+        <v>0.5716</v>
+      </c>
+      <c r="T60" s="88"/>
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="10">
         <v>0.34150000000000003</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="18">
         <v>0.49080000000000001</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="69">
         <v>0.48899999999999999</v>
       </c>
-      <c r="G61" s="63">
+      <c r="G61" s="69">
         <v>0.48420000000000002</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="45">
         <v>0.52749999999999997</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="43">
         <v>0.51970000000000005</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="43">
         <v>0.51019999999999999</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="45">
         <v>0.52829999999999999</v>
       </c>
-      <c r="L61" s="23">
+      <c r="L61" s="45">
         <v>0.53869999999999996</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="42">
         <v>0.47489999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="5"/>
-      <c r="C62" s="10" t="s">
+      <c r="N61" s="77">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="T61" s="87"/>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="15">
         <v>0.56759999999999999</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E62" s="26">
         <v>0.55459999999999998</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="30">
         <v>0.49630000000000002</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="30">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="8">
         <v>0.51280000000000003</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="26">
         <v>0.55130000000000001</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="26">
         <v>0.55769999999999997</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="8">
         <v>0.51259999999999994</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="26">
         <v>0.54720000000000002</v>
       </c>
-      <c r="M62" s="30">
+      <c r="M62" s="26">
         <v>0.55659999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="5"/>
-      <c r="C63" s="18" t="s">
+      <c r="N62" s="78">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="T62" s="88"/>
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="67">
+      <c r="D63" s="23">
         <v>0.51429999999999998</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="23">
         <v>0.5181</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="44">
         <v>0.55559999999999998</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="45">
         <v>0.52649999999999997</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="44">
         <v>0.54869999999999997</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="45">
         <v>0.53239999999999998</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="44">
         <v>0.54779999999999995</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="44">
         <v>0.54420000000000002</v>
       </c>
-      <c r="L63" s="23">
+      <c r="L63" s="45">
         <v>0.52900000000000003</v>
       </c>
-      <c r="M63" s="21">
+      <c r="M63" s="43">
         <v>0.50449999999999995</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="5"/>
-      <c r="C64" s="10" t="s">
+      <c r="N63" s="79">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="T63" s="87"/>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="11">
         <v>0.53159999999999996</v>
       </c>
-      <c r="E64" s="75">
+      <c r="E64" s="30">
         <v>0.49569999999999997</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="26">
         <v>0.54569999999999996</v>
       </c>
-      <c r="G64" s="47">
+      <c r="G64" s="30">
         <v>0.4929</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="8">
         <v>0.50309999999999999</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="8">
         <v>0.50570000000000004</v>
       </c>
-      <c r="J64" s="47">
+      <c r="J64" s="30">
         <v>0.49080000000000001</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="30">
         <v>0.49340000000000001</v>
       </c>
-      <c r="L64" s="47">
+      <c r="L64" s="30">
         <v>0.48930000000000001</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="8">
         <v>0.51819999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="5"/>
-      <c r="C65" s="18" t="s">
+      <c r="N64" s="83">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="T64" s="88"/>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D65" s="22">
         <v>0.47099999999999997</v>
       </c>
-      <c r="E65" s="67">
+      <c r="E65" s="23">
         <v>0.51129999999999998</v>
       </c>
-      <c r="F65" s="63">
+      <c r="F65" s="69">
         <v>0.49619999999999997</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="43">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="45">
         <v>0.52929999999999999</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="45">
         <v>0.52049999999999996</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="43">
         <v>0.51880000000000004</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="43">
         <v>0.51349999999999996</v>
       </c>
-      <c r="L65" s="63">
+      <c r="L65" s="69">
         <v>0.49819999999999998</v>
       </c>
-      <c r="M65" s="21">
+      <c r="M65" s="43">
         <v>0.50390000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="5"/>
-      <c r="C66" s="10" t="s">
+      <c r="N65" s="77">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="T65" s="87"/>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="12">
         <v>0.45319999999999999</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="8">
         <v>0.50449999999999995</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="30">
         <v>0.49569999999999997</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="30">
         <v>0.48480000000000001</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="8">
         <v>0.51629999999999998</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="26">
         <v>0.54349999999999998</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="11">
         <v>0.52190000000000003</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="8">
         <v>0.50490000000000002</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="19">
         <v>0.52</v>
       </c>
-      <c r="M66" s="47">
+      <c r="M66" s="30">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="5"/>
-      <c r="C67" s="18" t="s">
+      <c r="N66" s="76">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="T66" s="88"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="42">
+      <c r="D67" s="16">
         <v>0.56069999999999998</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="21">
         <v>0.6169</v>
       </c>
-      <c r="F67" s="44">
+      <c r="F67" s="57">
         <v>0.59309999999999996</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="44">
         <v>0.55349999999999999</v>
       </c>
-      <c r="H67" s="77">
+      <c r="H67" s="72">
         <v>0.61829999999999996</v>
       </c>
-      <c r="I67" s="44">
+      <c r="I67" s="57">
         <v>0.57509999999999994</v>
       </c>
-      <c r="J67" s="44">
+      <c r="J67" s="57">
         <v>0.58389999999999997</v>
       </c>
-      <c r="K67" s="44">
+      <c r="K67" s="57">
         <v>0.56569999999999998</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="44">
         <v>0.55879999999999996</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="44">
         <v>0.54630000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="5"/>
-      <c r="C68" s="10" t="s">
+      <c r="N67" s="80">
+        <v>0.5776</v>
+      </c>
+      <c r="T67" s="87"/>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="14">
         <v>0.61250000000000004</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="15">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="15">
         <v>0.56310000000000004</v>
       </c>
-      <c r="G68" s="64">
+      <c r="G68" s="15">
         <v>0.57189999999999996</v>
       </c>
-      <c r="H68" s="78">
+      <c r="H68" s="14">
         <v>0.61470000000000002</v>
       </c>
-      <c r="I68" s="78">
+      <c r="I68" s="14">
         <v>0.60909999999999997</v>
       </c>
-      <c r="J68" s="64">
+      <c r="J68" s="15">
         <v>0.56740000000000002</v>
       </c>
-      <c r="K68" s="64">
+      <c r="K68" s="15">
         <v>0.57540000000000002</v>
       </c>
-      <c r="L68" s="64">
+      <c r="L68" s="15">
         <v>0.5887</v>
       </c>
-      <c r="M68" s="30">
+      <c r="M68" s="26">
         <v>0.55630000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="5"/>
-      <c r="C69" s="18" t="s">
+      <c r="N68" s="84">
+        <v>0.5968</v>
+      </c>
+      <c r="T68" s="88"/>
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+      <c r="C69" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="73">
+      <c r="D69" s="29">
         <v>0.46970000000000001</v>
       </c>
-      <c r="E69" s="50">
+      <c r="E69" s="18">
         <v>0.48780000000000001</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="44">
         <v>0.54110000000000003</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="52">
         <v>0.5</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="45">
         <v>0.52439999999999998</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="43">
         <v>0.51839999999999997</v>
       </c>
-      <c r="J69" s="21">
+      <c r="J69" s="43">
         <v>0.50980000000000003</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="43">
         <v>0.51759999999999995</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="44">
         <v>0.5595</v>
       </c>
-      <c r="M69" s="63">
+      <c r="M69" s="69">
         <v>0.49280000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="5"/>
-      <c r="C70" s="10" t="s">
+      <c r="N69" s="77">
+        <v>0.5081</v>
+      </c>
+      <c r="T69" s="87"/>
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="15">
         <v>0.58620000000000005</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="25">
         <v>0.46339999999999998</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="26">
         <v>0.55420000000000003</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="8">
         <v>0.50690000000000002</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="8">
         <v>0.51439999999999997</v>
       </c>
-      <c r="I70" s="64">
+      <c r="I70" s="15">
         <v>0.57120000000000004</v>
       </c>
-      <c r="J70" s="64">
+      <c r="J70" s="15">
         <v>0.58130000000000004</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K70" s="11">
         <v>0.53849999999999998</v>
       </c>
-      <c r="L70" s="64">
+      <c r="L70" s="15">
         <v>0.56059999999999999</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="11">
         <v>0.52470000000000006</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="5"/>
-      <c r="C71" s="18" t="s">
+      <c r="N70" s="82">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="T70" s="88"/>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="62">
+      <c r="D71" s="21">
         <v>0.61539999999999995</v>
       </c>
-      <c r="E71" s="76">
+      <c r="E71" s="31">
         <v>0.70830000000000004</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="57">
         <v>0.59840000000000004</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="44">
         <v>0.5585</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="57">
         <v>0.56769999999999998</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="57">
         <v>0.5635</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="44">
         <v>0.54169999999999996</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="44">
         <v>0.55300000000000005</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="44">
         <v>0.55830000000000002</v>
       </c>
-      <c r="M71" s="21">
+      <c r="M71" s="43">
         <v>0.51970000000000005</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="5"/>
-      <c r="C72" s="10" t="s">
+      <c r="N71" s="81">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="T71" s="87"/>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="15">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="11">
         <v>0.52229999999999999</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="8">
         <v>0.51719999999999999</v>
       </c>
-      <c r="G72" s="47">
+      <c r="G72" s="30">
         <v>0.49840000000000001</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="26">
         <v>0.55510000000000004</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="11">
         <v>0.52300000000000002</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="11">
         <v>0.52339999999999998</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="11">
         <v>0.52869999999999995</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="11">
         <v>0.5222</v>
       </c>
-      <c r="M72" s="30">
+      <c r="M72" s="26">
         <v>0.54069999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="5"/>
-      <c r="C73" s="18" t="s">
+      <c r="N72" s="78">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="T72" s="88"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="31">
         <v>0.92310000000000003</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="13">
         <v>0.53210000000000002</v>
       </c>
-      <c r="F73" s="63">
+      <c r="F73" s="69">
         <v>0.49880000000000002</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="43">
         <v>0.50890000000000002</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="43">
         <v>0.50900000000000001</v>
       </c>
-      <c r="I73" s="63">
+      <c r="I73" s="69">
         <v>0.48309999999999997</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J73" s="43">
         <v>0.50629999999999997</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="45">
         <v>0.53539999999999999</v>
       </c>
-      <c r="L73" s="23">
+      <c r="L73" s="45">
         <v>0.53059999999999996</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M73" s="43">
         <v>0.51190000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="5"/>
-      <c r="C74" s="10" t="s">
+      <c r="N73" s="77">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="T73" s="87"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+      <c r="C74" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="86">
+      <c r="D74" s="35">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="11">
         <v>0.53610000000000002</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F74" s="12">
         <v>0.4103</v>
       </c>
-      <c r="G74" s="64">
+      <c r="G74" s="15">
         <v>0.56320000000000003</v>
       </c>
-      <c r="H74" s="47">
+      <c r="H74" s="30">
         <v>0.4854</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I74" s="26">
         <v>0.55389999999999995</v>
       </c>
-      <c r="J74" s="64">
+      <c r="J74" s="15">
         <v>0.56120000000000003</v>
       </c>
-      <c r="K74" s="64">
+      <c r="K74" s="15">
         <v>0.56240000000000001</v>
       </c>
-      <c r="L74" s="64">
+      <c r="L74" s="15">
         <v>0.57579999999999998</v>
       </c>
-      <c r="M74" s="64">
+      <c r="M74" s="15">
         <v>0.57820000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="5"/>
-      <c r="C75" s="18" t="s">
+      <c r="N74" s="84">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="T74" s="88"/>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+      <c r="C75" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="17">
         <v>0.55740000000000001</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="21">
         <v>0.60699999999999998</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="45">
         <v>0.53739999999999999</v>
       </c>
-      <c r="G75" s="44">
+      <c r="G75" s="57">
         <v>0.57069999999999999</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="72">
         <v>0.64749999999999996</v>
       </c>
-      <c r="I75" s="77">
+      <c r="I75" s="72">
         <v>0.60399999999999998</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="45">
         <v>0.53810000000000002</v>
       </c>
-      <c r="K75" s="44">
+      <c r="K75" s="57">
         <v>0.58420000000000005</v>
       </c>
-      <c r="L75" s="44">
+      <c r="L75" s="57">
         <v>0.5706</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="45">
         <v>0.53449999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="5"/>
-      <c r="C76" s="10" t="s">
+      <c r="N75" s="80">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="T75" s="87"/>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="86">
+      <c r="D76" s="35">
         <v>0.83330000000000004</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="11">
         <v>0.53849999999999998</v>
       </c>
-      <c r="F76" s="64">
+      <c r="F76" s="15">
         <v>0.58650000000000002</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="15">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H76" s="64">
+      <c r="H76" s="15">
         <v>0.58189999999999997</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="26">
         <v>0.55869999999999997</v>
       </c>
-      <c r="J76" s="30">
+      <c r="J76" s="26">
         <v>0.55259999999999998</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K76" s="8">
         <v>0.51739999999999997</v>
       </c>
-      <c r="L76" s="30">
+      <c r="L76" s="26">
         <v>0.55359999999999998</v>
       </c>
-      <c r="M76" s="47">
+      <c r="M76" s="30">
         <v>0.49669999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="5"/>
-      <c r="C77" s="18" t="s">
+      <c r="N76" s="82">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="T76" s="88"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="62">
+      <c r="D77" s="21">
         <v>0.60229999999999995</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="13">
         <v>0.53649999999999998</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="44">
         <v>0.55579999999999996</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="57">
         <v>0.56530000000000002</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="45">
         <v>0.52680000000000005</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="44">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="44">
         <v>0.55969999999999998</v>
       </c>
-      <c r="K77" s="44">
+      <c r="K77" s="57">
         <v>0.56259999999999999</v>
       </c>
-      <c r="L77" s="44">
+      <c r="L77" s="57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="M77" s="44">
+      <c r="M77" s="57">
         <v>0.58099999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="5"/>
-      <c r="C78" s="10" t="s">
+      <c r="N77" s="80">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="T77" s="87"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="54">
+      <c r="D78" s="19">
         <v>0.5</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="12">
         <v>0.4511</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="8">
         <v>0.50629999999999997</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="30">
         <v>0.49919999999999998</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="8">
         <v>0.50119999999999998</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="8">
         <v>0.51910000000000001</v>
       </c>
-      <c r="J78" s="30">
+      <c r="J78" s="26">
         <v>0.54139999999999999</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="11">
         <v>0.52959999999999996</v>
       </c>
-      <c r="L78" s="30">
+      <c r="L78" s="26">
         <v>0.54179999999999995</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M78" s="8">
         <v>0.5121</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="5"/>
-      <c r="C79" s="18" t="s">
+      <c r="N78" s="78">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="T78" s="88"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="16">
         <v>0.5716</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="44">
         <v>0.55420000000000003</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="44">
         <v>0.55920000000000003</v>
       </c>
-      <c r="H79" s="44">
+      <c r="H79" s="57">
         <v>0.57020000000000004</v>
       </c>
-      <c r="I79" s="44">
+      <c r="I79" s="57">
         <v>0.56179999999999997</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J79" s="45">
         <v>0.53320000000000001</v>
       </c>
-      <c r="K79" s="44">
+      <c r="K79" s="57">
         <v>0.56810000000000005</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="44">
         <v>0.55940000000000001</v>
       </c>
-      <c r="M79" s="21">
+      <c r="M79" s="43">
         <v>0.51870000000000005</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="5"/>
-      <c r="C80" s="10" t="s">
+      <c r="N79" s="80">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="T79" s="87"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="14">
         <v>0.60609999999999997</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E80" s="15">
         <v>0.58099999999999996</v>
       </c>
-      <c r="F80" s="78">
+      <c r="F80" s="14">
         <v>0.63090000000000002</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G80" s="26">
         <v>0.54469999999999996</v>
       </c>
-      <c r="H80" s="78">
+      <c r="H80" s="14">
         <v>0.60540000000000005</v>
       </c>
-      <c r="I80" s="64">
+      <c r="I80" s="15">
         <v>0.59430000000000005</v>
       </c>
-      <c r="J80" s="78">
+      <c r="J80" s="14">
         <v>0.60650000000000004</v>
       </c>
-      <c r="K80" s="64">
+      <c r="K80" s="15">
         <v>0.57440000000000002</v>
       </c>
-      <c r="L80" s="64">
+      <c r="L80" s="15">
         <v>0.59940000000000004</v>
       </c>
-      <c r="M80" s="30">
+      <c r="M80" s="26">
         <v>0.54679999999999995</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="5"/>
-      <c r="C81" s="18" t="s">
+      <c r="N80" s="84">
+        <v>0.5867</v>
+      </c>
+      <c r="T80" s="88"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D81" s="16">
         <v>0.56030000000000002</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="18">
         <v>0.49249999999999999</v>
       </c>
-      <c r="F81" s="63">
+      <c r="F81" s="69">
         <v>0.49020000000000002</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="45">
         <v>0.5222</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H81" s="45">
         <v>0.53029999999999999</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I81" s="45">
         <v>0.52380000000000004</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="44">
         <v>0.5554</v>
       </c>
-      <c r="K81" s="44">
+      <c r="K81" s="57">
         <v>0.56030000000000002</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="57">
         <v>0.57230000000000003</v>
       </c>
-      <c r="M81" s="23">
+      <c r="M81" s="45">
         <v>0.53259999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="5"/>
-      <c r="C82" s="10" t="s">
+      <c r="N81" s="81">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="T81" s="87"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="14">
         <v>0.625</v>
       </c>
-      <c r="E82" s="72">
+      <c r="E82" s="28">
         <v>0.6</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="15">
         <v>0.59389999999999998</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="8">
         <v>0.51470000000000005</v>
       </c>
-      <c r="H82" s="64">
+      <c r="H82" s="15">
         <v>0.58430000000000004</v>
       </c>
-      <c r="I82" s="64">
+      <c r="I82" s="15">
         <v>0.58220000000000005</v>
       </c>
-      <c r="J82" s="64">
+      <c r="J82" s="15">
         <v>0.56850000000000001</v>
       </c>
-      <c r="K82" s="64">
+      <c r="K82" s="15">
         <v>0.57189999999999996</v>
       </c>
-      <c r="L82" s="81">
+      <c r="L82" s="74">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M82" s="30">
+      <c r="M82" s="26">
         <v>0.55130000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="5"/>
-      <c r="C83" s="18" t="s">
+      <c r="N82" s="84">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="T82" s="88"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D83" s="16">
         <v>0.57379999999999998</v>
       </c>
-      <c r="E83" s="50">
+      <c r="E83" s="18">
         <v>0.4829</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="44">
         <v>0.54049999999999998</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="45">
         <v>0.52549999999999997</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="44">
         <v>0.54549999999999998</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="45">
         <v>0.53280000000000005</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J83" s="44">
         <v>0.54859999999999998</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K83" s="44">
         <v>0.55210000000000004</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="44">
         <v>0.54379999999999995</v>
       </c>
-      <c r="M83" s="23">
+      <c r="M83" s="45">
         <v>0.52869999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="5"/>
-      <c r="C84" s="10" t="s">
+      <c r="N83" s="81">
+        <v>0.5464</v>
+      </c>
+      <c r="T83" s="87"/>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+      <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="8">
         <v>0.51719999999999999</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="11">
         <v>0.5302</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="26">
         <v>0.54430000000000001</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="30">
         <v>0.49370000000000003</v>
       </c>
-      <c r="H84" s="30">
+      <c r="H84" s="26">
         <v>0.55189999999999995</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="8">
         <v>0.51070000000000004</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="8">
         <v>0.50029999999999997</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K84" s="8">
         <v>0.50119999999999998</v>
       </c>
-      <c r="L84" s="29">
+      <c r="L84" s="20">
         <v>0.47420000000000001</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="20">
         <v>0.47549999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="5"/>
-      <c r="C85" s="18" t="s">
+      <c r="N84" s="76">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="T84" s="88"/>
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+      <c r="C85" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="87">
+      <c r="D85" s="36">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E85" s="67">
+      <c r="E85" s="23">
         <v>0.50890000000000002</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F85" s="45">
         <v>0.5262</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="43">
         <v>0.51880000000000004</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="44">
         <v>0.55089999999999995</v>
       </c>
-      <c r="I85" s="23">
+      <c r="I85" s="45">
         <v>0.52370000000000005</v>
       </c>
-      <c r="J85" s="23">
+      <c r="J85" s="45">
         <v>0.53269999999999995</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="43">
         <v>0.51649999999999996</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="43">
         <v>0.51770000000000005</v>
       </c>
-      <c r="M85" s="21">
+      <c r="M85" s="43">
         <v>0.51339999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="5"/>
-      <c r="C86" s="10" t="s">
+      <c r="N85" s="79">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="T85" s="87"/>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+      <c r="C86" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D86" s="72">
+      <c r="D86" s="28">
         <v>0.6</v>
       </c>
-      <c r="E86" s="28">
+      <c r="E86" s="12">
         <v>0.34429999999999999</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="8">
         <v>0.50900000000000001</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="12">
         <v>0.43640000000000001</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="8">
         <v>0.51770000000000005</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="26">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="11">
         <v>0.53349999999999997</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="11">
         <v>0.52210000000000001</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="8">
         <v>0.50160000000000005</v>
       </c>
-      <c r="M86" s="47">
+      <c r="M86" s="30">
         <v>0.48680000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="5"/>
-      <c r="C87" s="18" t="s">
+      <c r="N86" s="85">
+        <v>0.51</v>
+      </c>
+      <c r="T86" s="88"/>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+      <c r="C87" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="43">
+      <c r="D87" s="17">
         <v>0.55969999999999998</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="13">
         <v>0.52629999999999999</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="43">
         <v>0.50560000000000005</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G87" s="42">
         <v>0.47849999999999998</v>
       </c>
-      <c r="H87" s="21">
+      <c r="H87" s="43">
         <v>0.5121</v>
       </c>
-      <c r="I87" s="63">
+      <c r="I87" s="69">
         <v>0.49059999999999998</v>
       </c>
-      <c r="J87" s="21">
+      <c r="J87" s="43">
         <v>0.51029999999999998</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K87" s="43">
         <v>0.51959999999999995</v>
       </c>
-      <c r="L87" s="23">
+      <c r="L87" s="45">
         <v>0.52149999999999996</v>
       </c>
-      <c r="M87" s="21">
+      <c r="M87" s="43">
         <v>0.51190000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="5"/>
-      <c r="C88" s="10" t="s">
+      <c r="N87" s="77">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="T87" s="87"/>
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4"/>
+      <c r="C88" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="72">
+      <c r="D88" s="28">
         <v>0.6</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="12">
         <v>0.42620000000000002</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="30">
         <v>0.49349999999999999</v>
       </c>
-      <c r="G88" s="55">
+      <c r="G88" s="25">
         <v>0.46010000000000001</v>
       </c>
-      <c r="H88" s="47">
+      <c r="H88" s="30">
         <v>0.48859999999999998</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="11">
         <v>0.53139999999999998</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J88" s="26">
         <v>0.54549999999999998</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K88" s="8">
         <v>0.51459999999999995</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="11">
         <v>0.53380000000000005</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M88" s="8">
         <v>0.50570000000000004</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="5"/>
-      <c r="C89" s="18" t="s">
+      <c r="N88" s="76">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="T88" s="88"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+      <c r="C89" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="10">
         <v>0.41839999999999999</v>
       </c>
-      <c r="E89" s="67">
+      <c r="E89" s="23">
         <v>0.51529999999999998</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="45">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="45">
         <v>0.5242</v>
       </c>
-      <c r="H89" s="63">
+      <c r="H89" s="69">
         <v>0.49930000000000002</v>
       </c>
-      <c r="I89" s="23">
+      <c r="I89" s="45">
         <v>0.52349999999999997</v>
       </c>
-      <c r="J89" s="21">
+      <c r="J89" s="43">
         <v>0.51029999999999998</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="45">
         <v>0.5343</v>
       </c>
-      <c r="L89" s="21">
+      <c r="L89" s="43">
         <v>0.51629999999999998</v>
       </c>
-      <c r="M89" s="23">
+      <c r="M89" s="45">
         <v>0.52410000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" s="2" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="5"/>
-      <c r="C90" s="10" t="s">
+      <c r="N89" s="79">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="T89" s="87"/>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="2:21" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+      <c r="C90" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="11">
         <v>0.52270000000000005</v>
       </c>
-      <c r="E90" s="70">
+      <c r="E90" s="26">
         <v>0.54649999999999999</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="8">
         <v>0.51090000000000002</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="19">
         <v>0.51</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="11">
         <v>0.52959999999999996</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90" s="11">
         <v>0.52210000000000001</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="11">
         <v>0.53669999999999995</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="11">
         <v>0.53520000000000001</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="8">
         <v>0.51870000000000005</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="11">
         <v>0.52349999999999997</v>
+      </c>
+      <c r="N90" s="86">
+        <v>0.5282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="D4:M4"/>
   </mergeCells>
   <hyperlinks>

--- a/RelicStatsExcel.xlsx
+++ b/RelicStatsExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b6dc3463c11edab/College/Sophomore/Semester 2/Multi/projectRelicStats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\widerw\OneDrive\College\Sophomore\Semester 2\Multi\projectRelicStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>player</t>
   </si>
@@ -368,34 +368,37 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Player #</t>
+  </si>
+  <si>
+    <t>tier 1</t>
+  </si>
+  <si>
+    <t>tier 2</t>
+  </si>
+  <si>
+    <t>tier 3</t>
+  </si>
+  <si>
+    <t>tier 4</t>
+  </si>
+  <si>
+    <t>tier 5</t>
+  </si>
+  <si>
+    <t>tier 6</t>
+  </si>
+  <si>
+    <t>tier 7</t>
+  </si>
+  <si>
+    <t>tier 8</t>
+  </si>
+  <si>
+    <t>tier 9</t>
+  </si>
+  <si>
+    <t>tier 10</t>
   </si>
 </sst>
 </file>
@@ -942,9 +945,6 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1002,13 +1002,16 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -1018,22 +1021,33 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="6.5"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1083,13 +1097,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1102,6 +1109,40 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6.5"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1118,23 +1159,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C5:N90" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="C5:N90"/>
-  <sortState ref="C6:N90">
-    <sortCondition descending="1" ref="N5:N90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C5:O90" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="C5:O90"/>
+  <sortState ref="C6:O90">
+    <sortCondition descending="1" ref="O5:O90"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="1" name="Column1" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="1"/>
-    <tableColumn id="3" name="2"/>
-    <tableColumn id="4" name="3"/>
-    <tableColumn id="5" name="4"/>
-    <tableColumn id="6" name="5"/>
-    <tableColumn id="7" name="6"/>
-    <tableColumn id="8" name="7"/>
-    <tableColumn id="9" name="8"/>
-    <tableColumn id="10" name="9"/>
-    <tableColumn id="11" name="10"/>
+    <tableColumn id="13" name="Player #" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="tier 1"/>
+    <tableColumn id="3" name="tier 2"/>
+    <tableColumn id="4" name="tier 3"/>
+    <tableColumn id="5" name="tier 4"/>
+    <tableColumn id="6" name="tier 5"/>
+    <tableColumn id="7" name="tier 6"/>
+    <tableColumn id="8" name="tier 7"/>
+    <tableColumn id="9" name="tier 8"/>
+    <tableColumn id="10" name="tier 9"/>
+    <tableColumn id="11" name="tier 10"/>
     <tableColumn id="12" name="Overall"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1404,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U90"/>
+  <dimension ref="B1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1415,3632 +1457,3894 @@
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" ht="0.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="3"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="2"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="72" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="Q5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="R5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="S5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="73">
+        <v>66</v>
+      </c>
+      <c r="E6" s="11">
         <v>0.61250000000000004</v>
       </c>
-      <c r="E6" s="12">
+      <c r="F6" s="12">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>0.56310000000000004</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>0.57189999999999996</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>0.61470000000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>0.60909999999999997</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>0.56740000000000002</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <v>0.57540000000000002</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>0.5887</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <v>0.55630000000000002</v>
       </c>
-      <c r="N6" s="84">
+      <c r="O6" s="83">
         <v>0.5968</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="Q6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="R6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="37">
+      <c r="S6" s="37">
         <v>0</v>
       </c>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="74">
+        <v>73</v>
+      </c>
+      <c r="E7" s="14">
         <v>0.55740000000000001</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="18">
         <v>0.60699999999999998</v>
       </c>
-      <c r="F7" s="41">
+      <c r="G7" s="41">
         <v>0.53739999999999999</v>
       </c>
-      <c r="G7" s="53">
+      <c r="H7" s="53">
         <v>0.57069999999999999</v>
       </c>
-      <c r="H7" s="68">
+      <c r="I7" s="68">
         <v>0.64749999999999996</v>
       </c>
-      <c r="I7" s="68">
+      <c r="J7" s="68">
         <v>0.60399999999999998</v>
       </c>
-      <c r="J7" s="41">
+      <c r="K7" s="41">
         <v>0.53810000000000002</v>
       </c>
-      <c r="K7" s="53">
+      <c r="L7" s="53">
         <v>0.58420000000000005</v>
       </c>
-      <c r="L7" s="53">
+      <c r="M7" s="53">
         <v>0.5706</v>
       </c>
-      <c r="M7" s="41">
+      <c r="N7" s="41">
         <v>0.53449999999999998</v>
       </c>
-      <c r="N7" s="80">
+      <c r="O7" s="79">
         <v>0.58799999999999997</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>0.46</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="R7" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="R7" s="44">
+      <c r="S7" s="44">
         <v>0.06</v>
       </c>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="73">
+        <v>78</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.60609999999999997</v>
       </c>
-      <c r="E8" s="12">
+      <c r="F8" s="12">
         <v>0.58099999999999996</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="11">
         <v>0.63090000000000002</v>
       </c>
-      <c r="G8" s="23">
+      <c r="H8" s="23">
         <v>0.54469999999999996</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>0.60540000000000005</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>0.59430000000000005</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>0.60650000000000004</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>0.57440000000000002</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>0.59940000000000004</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <v>0.54679999999999995</v>
       </c>
-      <c r="N8" s="84">
+      <c r="O8" s="83">
         <v>0.5867</v>
       </c>
-      <c r="P8" s="45">
+      <c r="Q8" s="45">
         <v>0.47</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="R8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="R8" s="47">
+      <c r="S8" s="47">
         <v>0.2</v>
       </c>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="74">
+        <v>39</v>
+      </c>
+      <c r="E9" s="28">
         <v>0.71430000000000005</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="18">
         <v>0.60929999999999995</v>
       </c>
-      <c r="F9" s="41">
+      <c r="G9" s="41">
         <v>0.52290000000000003</v>
       </c>
-      <c r="G9" s="68">
+      <c r="H9" s="68">
         <v>0.61199999999999999</v>
       </c>
-      <c r="H9" s="53">
+      <c r="I9" s="53">
         <v>0.5897</v>
       </c>
-      <c r="I9" s="53">
+      <c r="J9" s="53">
         <v>0.58450000000000002</v>
       </c>
-      <c r="J9" s="53">
+      <c r="K9" s="53">
         <v>0.57509999999999994</v>
       </c>
-      <c r="K9" s="53">
+      <c r="L9" s="53">
         <v>0.58460000000000001</v>
       </c>
-      <c r="L9" s="53">
+      <c r="M9" s="53">
         <v>0.58420000000000005</v>
       </c>
-      <c r="M9" s="53">
+      <c r="N9" s="53">
         <v>0.57020000000000004</v>
       </c>
-      <c r="N9" s="80">
+      <c r="O9" s="79">
         <v>0.58179999999999998</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="Q9" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="R9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="50">
+      <c r="S9" s="50">
         <v>0.4</v>
       </c>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="73">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12">
         <v>0.57310000000000005</v>
       </c>
-      <c r="E10" s="12">
+      <c r="F10" s="12">
         <v>0.57330000000000003</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>0.56530000000000002</v>
       </c>
-      <c r="G10" s="27">
+      <c r="H10" s="27">
         <v>0.49530000000000002</v>
       </c>
-      <c r="H10" s="23">
+      <c r="I10" s="23">
         <v>0.54369999999999996</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="23">
         <v>0.55389999999999995</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="23">
         <v>0.55479999999999996</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <v>0.58750000000000002</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>0.61439999999999995</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>0.60029999999999994</v>
       </c>
-      <c r="N10" s="84">
+      <c r="O10" s="83">
         <v>0.57879999999999998</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="Q10" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="R10" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="52">
+      <c r="S10" s="52">
         <v>0.63</v>
       </c>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="74">
+        <v>65</v>
+      </c>
+      <c r="E11" s="13">
         <v>0.56069999999999998</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="18">
         <v>0.6169</v>
       </c>
-      <c r="F11" s="53">
+      <c r="G11" s="53">
         <v>0.59309999999999996</v>
       </c>
-      <c r="G11" s="40">
+      <c r="H11" s="40">
         <v>0.55349999999999999</v>
       </c>
-      <c r="H11" s="68">
+      <c r="I11" s="68">
         <v>0.61829999999999996</v>
       </c>
-      <c r="I11" s="53">
+      <c r="J11" s="53">
         <v>0.57509999999999994</v>
       </c>
-      <c r="J11" s="53">
+      <c r="K11" s="53">
         <v>0.58389999999999997</v>
       </c>
-      <c r="K11" s="53">
+      <c r="L11" s="53">
         <v>0.56569999999999998</v>
       </c>
-      <c r="L11" s="40">
+      <c r="M11" s="40">
         <v>0.55879999999999996</v>
       </c>
-      <c r="M11" s="40">
+      <c r="N11" s="40">
         <v>0.54630000000000001</v>
       </c>
-      <c r="N11" s="80">
+      <c r="O11" s="79">
         <v>0.5776</v>
       </c>
-      <c r="P11" s="54" t="s">
+      <c r="Q11" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="R11" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="55">
+      <c r="S11" s="55">
         <v>0.82</v>
       </c>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="74">
+        <v>49</v>
+      </c>
+      <c r="E12" s="13">
         <v>0.59209999999999996</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>0.55710000000000004</v>
       </c>
-      <c r="F12" s="53">
+      <c r="G12" s="53">
         <v>0.57310000000000005</v>
       </c>
-      <c r="G12" s="39">
+      <c r="H12" s="39">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H12" s="53">
+      <c r="I12" s="53">
         <v>0.56530000000000002</v>
       </c>
-      <c r="I12" s="53">
+      <c r="J12" s="53">
         <v>0.59019999999999995</v>
       </c>
-      <c r="J12" s="53">
+      <c r="K12" s="53">
         <v>0.57720000000000005</v>
       </c>
-      <c r="K12" s="53">
+      <c r="L12" s="53">
         <v>0.56110000000000004</v>
       </c>
-      <c r="L12" s="53">
+      <c r="M12" s="53">
         <v>0.59060000000000001</v>
       </c>
-      <c r="M12" s="53">
+      <c r="N12" s="53">
         <v>0.5756</v>
       </c>
-      <c r="N12" s="80">
+      <c r="O12" s="79">
         <v>0.57450000000000001</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="Q12" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="R12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="R12" s="57">
+      <c r="S12" s="57">
         <v>0.95</v>
       </c>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="73">
+        <v>80</v>
+      </c>
+      <c r="E13" s="11">
         <v>0.625</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F13" s="25">
         <v>0.6</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="12">
         <v>0.59389999999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>0.51470000000000005</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <v>0.58430000000000004</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <v>0.58220000000000005</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>0.56850000000000001</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="12">
         <v>0.57189999999999996</v>
       </c>
-      <c r="L13" s="70">
+      <c r="M13" s="70">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <v>0.55130000000000001</v>
       </c>
-      <c r="N13" s="84">
+      <c r="O13" s="83">
         <v>0.57220000000000004</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="Q13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="R13" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="60">
+      <c r="S13" s="60">
         <v>0.99</v>
       </c>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="73">
+        <v>58</v>
+      </c>
+      <c r="E14" s="31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E14" s="12">
+      <c r="F14" s="12">
         <v>0.58760000000000001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G14" s="17">
         <v>0.47749999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="H14" s="12">
         <v>0.57220000000000004</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>0.57709999999999995</v>
       </c>
-      <c r="I14" s="31">
+      <c r="J14" s="31">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>0.56040000000000001</v>
       </c>
-      <c r="K14" s="23">
+      <c r="L14" s="23">
         <v>0.55820000000000003</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>0.52990000000000004</v>
       </c>
-      <c r="N14" s="84">
+      <c r="O14" s="83">
         <v>0.5716</v>
       </c>
-      <c r="P14" s="61" t="s">
+      <c r="Q14" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="61" t="s">
+      <c r="R14" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="62">
+      <c r="S14" s="62">
         <v>0.999</v>
       </c>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="73">
+        <v>72</v>
+      </c>
+      <c r="E15" s="32">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>0.53610000000000002</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>0.4103</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>0.56320000000000003</v>
       </c>
-      <c r="H15" s="27">
+      <c r="I15" s="27">
         <v>0.4854</v>
       </c>
-      <c r="I15" s="23">
+      <c r="J15" s="23">
         <v>0.55389999999999995</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>0.56120000000000003</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <v>0.56240000000000001</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <v>0.57579999999999998</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>0.57820000000000005</v>
       </c>
-      <c r="N15" s="84">
+      <c r="O15" s="83">
         <v>0.56830000000000003</v>
       </c>
-      <c r="P15" s="63" t="s">
+      <c r="Q15" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q15" s="63" t="s">
+      <c r="R15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="R15" s="64">
+      <c r="S15" s="64">
         <v>0.99990000000000001</v>
       </c>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="2:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="74">
+        <v>75</v>
+      </c>
+      <c r="E16" s="18">
         <v>0.60229999999999995</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
         <v>0.53649999999999998</v>
       </c>
-      <c r="F16" s="40">
+      <c r="G16" s="40">
         <v>0.55579999999999996</v>
       </c>
-      <c r="G16" s="53">
+      <c r="H16" s="53">
         <v>0.56530000000000002</v>
       </c>
-      <c r="H16" s="41">
+      <c r="I16" s="41">
         <v>0.52680000000000005</v>
       </c>
-      <c r="I16" s="40">
+      <c r="J16" s="40">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J16" s="40">
+      <c r="K16" s="40">
         <v>0.55969999999999998</v>
       </c>
-      <c r="K16" s="53">
+      <c r="L16" s="53">
         <v>0.56259999999999999</v>
       </c>
-      <c r="L16" s="53">
+      <c r="M16" s="53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="M16" s="53">
+      <c r="N16" s="53">
         <v>0.58099999999999996</v>
       </c>
-      <c r="N16" s="80">
+      <c r="O16" s="79">
         <v>0.56759999999999999</v>
       </c>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="74">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F17" s="53">
+      <c r="G17" s="53">
         <v>0.57020000000000004</v>
       </c>
-      <c r="G17" s="39">
+      <c r="H17" s="39">
         <v>0.51449999999999996</v>
       </c>
-      <c r="H17" s="40">
+      <c r="I17" s="40">
         <v>0.55189999999999995</v>
       </c>
-      <c r="I17" s="53">
+      <c r="J17" s="53">
         <v>0.58140000000000003</v>
       </c>
-      <c r="J17" s="53">
+      <c r="K17" s="53">
         <v>0.57330000000000003</v>
       </c>
-      <c r="K17" s="53">
+      <c r="L17" s="53">
         <v>0.56559999999999999</v>
       </c>
-      <c r="L17" s="53">
+      <c r="M17" s="53">
         <v>0.57420000000000004</v>
       </c>
-      <c r="M17" s="53">
+      <c r="N17" s="53">
         <v>0.56730000000000003</v>
       </c>
-      <c r="N17" s="80">
+      <c r="O17" s="79">
         <v>0.56699999999999995</v>
       </c>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="74">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13">
         <v>0.56410000000000005</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <v>0.59379999999999999</v>
       </c>
-      <c r="F18" s="68">
+      <c r="G18" s="68">
         <v>0.6008</v>
       </c>
-      <c r="G18" s="40">
+      <c r="H18" s="40">
         <v>0.55079999999999996</v>
       </c>
-      <c r="H18" s="40">
+      <c r="I18" s="40">
         <v>0.54910000000000003</v>
       </c>
-      <c r="I18" s="53">
+      <c r="J18" s="53">
         <v>0.57669999999999999</v>
       </c>
-      <c r="J18" s="53">
+      <c r="K18" s="53">
         <v>0.57120000000000004</v>
       </c>
-      <c r="K18" s="53">
+      <c r="L18" s="53">
         <v>0.56120000000000003</v>
       </c>
-      <c r="L18" s="41">
+      <c r="M18" s="41">
         <v>0.53480000000000005</v>
       </c>
-      <c r="M18" s="39">
+      <c r="N18" s="39">
         <v>0.51570000000000005</v>
       </c>
-      <c r="N18" s="80">
+      <c r="O18" s="79">
         <v>0.56330000000000002</v>
       </c>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="73">
+        <v>56</v>
+      </c>
+      <c r="E19" s="27">
         <v>0.48570000000000002</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>0.51319999999999999</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>0.52780000000000005</v>
       </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <v>0.56059999999999999</v>
       </c>
-      <c r="H19" s="23">
+      <c r="I19" s="23">
         <v>0.55469999999999997</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J19" s="12">
         <v>0.57120000000000004</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K19" s="12">
+      <c r="L19" s="12">
         <v>0.56769999999999998</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>0.59640000000000004</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>0.58050000000000002</v>
       </c>
-      <c r="N19" s="84">
+      <c r="O19" s="83">
         <v>0.56279999999999997</v>
       </c>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="74">
+        <v>77</v>
+      </c>
+      <c r="E20" s="13">
         <v>0.58299999999999996</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>0.5716</v>
       </c>
-      <c r="F20" s="40">
+      <c r="G20" s="40">
         <v>0.55420000000000003</v>
       </c>
-      <c r="G20" s="40">
+      <c r="H20" s="40">
         <v>0.55920000000000003</v>
       </c>
-      <c r="H20" s="53">
+      <c r="I20" s="53">
         <v>0.57020000000000004</v>
       </c>
-      <c r="I20" s="53">
+      <c r="J20" s="53">
         <v>0.56179999999999997</v>
       </c>
-      <c r="J20" s="41">
+      <c r="K20" s="41">
         <v>0.53320000000000001</v>
       </c>
-      <c r="K20" s="53">
+      <c r="L20" s="53">
         <v>0.56810000000000005</v>
       </c>
-      <c r="L20" s="40">
+      <c r="M20" s="40">
         <v>0.55940000000000001</v>
       </c>
-      <c r="M20" s="39">
+      <c r="N20" s="39">
         <v>0.51870000000000005</v>
       </c>
-      <c r="N20" s="80">
+      <c r="O20" s="79">
         <v>0.56040000000000001</v>
       </c>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="73">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>0.52290000000000003</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>0.52490000000000003</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>0.5252</v>
       </c>
-      <c r="H21" s="23">
+      <c r="I21" s="23">
         <v>0.54810000000000003</v>
       </c>
-      <c r="I21" s="23">
+      <c r="J21" s="23">
         <v>0.55630000000000002</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>0.56940000000000002</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <v>0.57289999999999996</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <v>0.57509999999999994</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>0.56069999999999998</v>
       </c>
-      <c r="N21" s="82">
+      <c r="O21" s="81">
         <v>0.5585</v>
       </c>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="74">
+        <v>69</v>
+      </c>
+      <c r="E22" s="18">
         <v>0.61539999999999995</v>
       </c>
-      <c r="E22" s="28">
+      <c r="F22" s="28">
         <v>0.70830000000000004</v>
       </c>
-      <c r="F22" s="53">
+      <c r="G22" s="53">
         <v>0.59840000000000004</v>
       </c>
-      <c r="G22" s="40">
+      <c r="H22" s="40">
         <v>0.5585</v>
       </c>
-      <c r="H22" s="53">
+      <c r="I22" s="53">
         <v>0.56769999999999998</v>
       </c>
-      <c r="I22" s="53">
+      <c r="J22" s="53">
         <v>0.5635</v>
       </c>
-      <c r="J22" s="40">
+      <c r="K22" s="40">
         <v>0.54169999999999996</v>
       </c>
-      <c r="K22" s="40">
+      <c r="L22" s="40">
         <v>0.55300000000000005</v>
       </c>
-      <c r="L22" s="40">
+      <c r="M22" s="40">
         <v>0.55830000000000002</v>
       </c>
-      <c r="M22" s="39">
+      <c r="N22" s="39">
         <v>0.51970000000000005</v>
       </c>
-      <c r="N22" s="81">
+      <c r="O22" s="80">
         <v>0.55810000000000004</v>
       </c>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="74">
+        <v>15</v>
+      </c>
+      <c r="E23" s="18">
         <v>0.60550000000000004</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>0.5212</v>
       </c>
-      <c r="F23" s="40">
+      <c r="G23" s="40">
         <v>0.55310000000000004</v>
       </c>
-      <c r="G23" s="39">
+      <c r="H23" s="39">
         <v>0.50890000000000002</v>
       </c>
-      <c r="H23" s="39">
+      <c r="I23" s="39">
         <v>0.51670000000000005</v>
       </c>
-      <c r="I23" s="53">
+      <c r="J23" s="53">
         <v>0.56640000000000001</v>
       </c>
-      <c r="J23" s="40">
+      <c r="K23" s="40">
         <v>0.55379999999999996</v>
       </c>
-      <c r="K23" s="40">
+      <c r="L23" s="40">
         <v>0.55579999999999996</v>
       </c>
-      <c r="L23" s="40">
+      <c r="M23" s="40">
         <v>0.54449999999999998</v>
       </c>
-      <c r="M23" s="53">
+      <c r="N23" s="53">
         <v>0.58120000000000005</v>
       </c>
-      <c r="N23" s="81">
+      <c r="O23" s="80">
         <v>0.55569999999999997</v>
       </c>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="73">
+        <v>46</v>
+      </c>
+      <c r="E24" s="16">
         <v>0.5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>0.50249999999999995</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>0.50939999999999996</v>
       </c>
-      <c r="G24" s="69">
+      <c r="H24" s="69">
         <v>0.52</v>
       </c>
-      <c r="H24" s="23">
+      <c r="I24" s="23">
         <v>0.55769999999999997</v>
       </c>
-      <c r="I24" s="23">
+      <c r="J24" s="23">
         <v>0.55530000000000002</v>
       </c>
-      <c r="J24" s="23">
+      <c r="K24" s="23">
         <v>0.55910000000000004</v>
       </c>
-      <c r="K24" s="12">
+      <c r="L24" s="12">
         <v>0.56589999999999996</v>
       </c>
-      <c r="L24" s="23">
+      <c r="M24" s="23">
         <v>0.54520000000000002</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>0.56730000000000003</v>
       </c>
-      <c r="N24" s="82">
+      <c r="O24" s="81">
         <v>0.55489999999999995</v>
       </c>
-      <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="74">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10">
         <v>0.52110000000000001</v>
       </c>
-      <c r="E25" s="14">
+      <c r="F25" s="14">
         <v>0.54220000000000002</v>
       </c>
-      <c r="F25" s="53">
+      <c r="G25" s="53">
         <v>0.56289999999999996</v>
       </c>
-      <c r="G25" s="40">
+      <c r="H25" s="40">
         <v>0.55859999999999999</v>
       </c>
-      <c r="H25" s="53">
+      <c r="I25" s="53">
         <v>0.56759999999999999</v>
       </c>
-      <c r="I25" s="40">
+      <c r="J25" s="40">
         <v>0.5413</v>
       </c>
-      <c r="J25" s="53">
+      <c r="K25" s="53">
         <v>0.56259999999999999</v>
       </c>
-      <c r="K25" s="41">
+      <c r="L25" s="41">
         <v>0.52859999999999996</v>
       </c>
-      <c r="L25" s="39">
+      <c r="M25" s="39">
         <v>0.51219999999999999</v>
       </c>
-      <c r="M25" s="39">
+      <c r="N25" s="39">
         <v>0.51739999999999997</v>
       </c>
-      <c r="N25" s="81">
+      <c r="O25" s="80">
         <v>0.54769999999999996</v>
       </c>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="73">
+        <v>22</v>
+      </c>
+      <c r="E26" s="22">
         <v>0.46150000000000002</v>
       </c>
-      <c r="E26" s="23">
+      <c r="F26" s="23">
         <v>0.5494</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>0.5393</v>
       </c>
-      <c r="G26" s="23">
+      <c r="H26" s="23">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>0.53659999999999997</v>
       </c>
-      <c r="I26" s="23">
+      <c r="J26" s="23">
         <v>0.5474</v>
       </c>
-      <c r="J26" s="23">
+      <c r="K26" s="23">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K26" s="23">
+      <c r="L26" s="23">
         <v>0.55230000000000001</v>
       </c>
-      <c r="L26" s="23">
+      <c r="M26" s="23">
         <v>0.54269999999999996</v>
       </c>
-      <c r="M26" s="8">
+      <c r="N26" s="8">
         <v>0.53039999999999998</v>
       </c>
-      <c r="N26" s="82">
+      <c r="O26" s="81">
         <v>0.54759999999999998</v>
       </c>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="74">
+        <v>79</v>
+      </c>
+      <c r="E27" s="13">
         <v>0.56030000000000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="F27" s="15">
         <v>0.49249999999999999</v>
       </c>
-      <c r="F27" s="65">
+      <c r="G27" s="65">
         <v>0.49020000000000002</v>
       </c>
-      <c r="G27" s="41">
+      <c r="H27" s="41">
         <v>0.5222</v>
       </c>
-      <c r="H27" s="41">
+      <c r="I27" s="41">
         <v>0.53029999999999999</v>
       </c>
-      <c r="I27" s="41">
+      <c r="J27" s="41">
         <v>0.52380000000000004</v>
       </c>
-      <c r="J27" s="40">
+      <c r="K27" s="40">
         <v>0.5554</v>
       </c>
-      <c r="K27" s="53">
+      <c r="L27" s="53">
         <v>0.56030000000000002</v>
       </c>
-      <c r="L27" s="53">
+      <c r="M27" s="53">
         <v>0.57230000000000003</v>
       </c>
-      <c r="M27" s="41">
+      <c r="N27" s="41">
         <v>0.53259999999999996</v>
       </c>
-      <c r="N27" s="81">
+      <c r="O27" s="80">
         <v>0.54730000000000001</v>
       </c>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="73">
+        <v>68</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.58620000000000005</v>
       </c>
-      <c r="E28" s="22">
+      <c r="F28" s="22">
         <v>0.46339999999999998</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="23">
         <v>0.55420000000000003</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <v>0.50690000000000002</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>0.51439999999999997</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J28" s="12">
         <v>0.57120000000000004</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <v>0.58130000000000004</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>0.53849999999999998</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>0.56059999999999999</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
         <v>0.52470000000000006</v>
       </c>
-      <c r="N28" s="82">
+      <c r="O28" s="81">
         <v>0.54700000000000004</v>
       </c>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="74">
+        <v>21</v>
+      </c>
+      <c r="E29" s="21">
         <v>0.62</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="13">
         <v>0.57069999999999999</v>
       </c>
-      <c r="F29" s="53">
+      <c r="G29" s="53">
         <v>0.5837</v>
       </c>
-      <c r="G29" s="53">
+      <c r="H29" s="53">
         <v>0.56789999999999996</v>
       </c>
-      <c r="H29" s="53">
+      <c r="I29" s="53">
         <v>0.56869999999999998</v>
       </c>
-      <c r="I29" s="40">
+      <c r="J29" s="40">
         <v>0.55220000000000002</v>
       </c>
-      <c r="J29" s="41">
+      <c r="K29" s="41">
         <v>0.5323</v>
       </c>
-      <c r="K29" s="41">
+      <c r="L29" s="41">
         <v>0.53779999999999994</v>
       </c>
-      <c r="L29" s="40">
+      <c r="M29" s="40">
         <v>0.54090000000000005</v>
       </c>
-      <c r="M29" s="40">
+      <c r="N29" s="40">
         <v>0.54530000000000001</v>
       </c>
-      <c r="N29" s="81">
+      <c r="O29" s="80">
         <v>0.5464</v>
       </c>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="74">
+        <v>81</v>
+      </c>
+      <c r="E30" s="13">
         <v>0.57379999999999998</v>
       </c>
-      <c r="E30" s="15">
+      <c r="F30" s="15">
         <v>0.4829</v>
       </c>
-      <c r="F30" s="40">
+      <c r="G30" s="40">
         <v>0.54049999999999998</v>
       </c>
-      <c r="G30" s="41">
+      <c r="H30" s="41">
         <v>0.52549999999999997</v>
       </c>
-      <c r="H30" s="40">
+      <c r="I30" s="40">
         <v>0.54549999999999998</v>
       </c>
-      <c r="I30" s="41">
+      <c r="J30" s="41">
         <v>0.53280000000000005</v>
       </c>
-      <c r="J30" s="40">
+      <c r="K30" s="40">
         <v>0.54859999999999998</v>
       </c>
-      <c r="K30" s="40">
+      <c r="L30" s="40">
         <v>0.55210000000000004</v>
       </c>
-      <c r="L30" s="40">
+      <c r="M30" s="40">
         <v>0.54379999999999995</v>
       </c>
-      <c r="M30" s="41">
+      <c r="N30" s="41">
         <v>0.52869999999999995</v>
       </c>
-      <c r="N30" s="81">
+      <c r="O30" s="80">
         <v>0.5464</v>
       </c>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="74">
+        <v>31</v>
+      </c>
+      <c r="E31" s="14">
         <v>0.54139999999999999</v>
       </c>
-      <c r="E31" s="14">
+      <c r="F31" s="14">
         <v>0.55110000000000003</v>
       </c>
-      <c r="F31" s="53">
+      <c r="G31" s="53">
         <v>0.56240000000000001</v>
       </c>
-      <c r="G31" s="53">
+      <c r="H31" s="53">
         <v>0.57420000000000004</v>
       </c>
-      <c r="H31" s="41">
+      <c r="I31" s="41">
         <v>0.53480000000000005</v>
       </c>
-      <c r="I31" s="53">
+      <c r="J31" s="53">
         <v>0.57350000000000001</v>
       </c>
-      <c r="J31" s="41">
+      <c r="K31" s="41">
         <v>0.53920000000000001</v>
       </c>
-      <c r="K31" s="40">
+      <c r="L31" s="40">
         <v>0.54010000000000002</v>
       </c>
-      <c r="L31" s="40">
+      <c r="M31" s="40">
         <v>0.54390000000000005</v>
       </c>
-      <c r="M31" s="41">
+      <c r="N31" s="41">
         <v>0.53520000000000001</v>
       </c>
-      <c r="N31" s="81">
+      <c r="O31" s="80">
         <v>0.5444</v>
       </c>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="74">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7">
         <v>0.42159999999999997</v>
       </c>
-      <c r="E32" s="26">
+      <c r="F32" s="26">
         <v>0.46460000000000001</v>
       </c>
-      <c r="F32" s="38">
+      <c r="G32" s="38">
         <v>0.47960000000000003</v>
       </c>
-      <c r="G32" s="41">
+      <c r="H32" s="41">
         <v>0.5323</v>
       </c>
-      <c r="H32" s="40">
+      <c r="I32" s="40">
         <v>0.54459999999999997</v>
       </c>
-      <c r="I32" s="40">
+      <c r="J32" s="40">
         <v>0.55969999999999998</v>
       </c>
-      <c r="J32" s="53">
+      <c r="K32" s="53">
         <v>0.58050000000000002</v>
       </c>
-      <c r="K32" s="40">
+      <c r="L32" s="40">
         <v>0.54749999999999999</v>
       </c>
-      <c r="L32" s="40">
+      <c r="M32" s="40">
         <v>0.5514</v>
       </c>
-      <c r="M32" s="38">
+      <c r="N32" s="38">
         <v>0.4773</v>
       </c>
-      <c r="N32" s="81">
+      <c r="O32" s="80">
         <v>0.54320000000000002</v>
       </c>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="73">
+        <v>32</v>
+      </c>
+      <c r="E33" s="9">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <v>0.53280000000000005</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="12">
         <v>0.5645</v>
       </c>
-      <c r="G33" s="17">
+      <c r="H33" s="17">
         <v>0.47770000000000001</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <v>0.52170000000000005</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>0.57640000000000002</v>
       </c>
-      <c r="J33" s="23">
+      <c r="K33" s="23">
         <v>0.54479999999999995</v>
       </c>
-      <c r="K33" s="23">
+      <c r="L33" s="23">
         <v>0.54949999999999999</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>0.51829999999999998</v>
       </c>
-      <c r="M33" s="22">
+      <c r="N33" s="22">
         <v>0.46029999999999999</v>
       </c>
-      <c r="N33" s="82">
+      <c r="O33" s="81">
         <v>0.54310000000000003</v>
       </c>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="73">
+        <v>42</v>
+      </c>
+      <c r="E34" s="12">
         <v>0.56910000000000005</v>
       </c>
-      <c r="E34" s="27">
+      <c r="F34" s="27">
         <v>0.48649999999999999</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>0.53190000000000004</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <v>0.52100000000000002</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <v>0.5393</v>
       </c>
-      <c r="I34" s="23">
+      <c r="J34" s="23">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J34" s="23">
+      <c r="K34" s="23">
         <v>0.54059999999999997</v>
       </c>
-      <c r="K34" s="23">
+      <c r="L34" s="23">
         <v>0.54820000000000002</v>
       </c>
-      <c r="L34" s="8">
+      <c r="M34" s="8">
         <v>0.53979999999999995</v>
       </c>
-      <c r="M34" s="17">
+      <c r="N34" s="17">
         <v>0.47939999999999999</v>
       </c>
-      <c r="N34" s="82">
+      <c r="O34" s="81">
         <v>0.54290000000000005</v>
       </c>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="73">
+        <v>74</v>
+      </c>
+      <c r="E35" s="32">
         <v>0.83330000000000004</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <v>0.53849999999999998</v>
       </c>
-      <c r="F35" s="12">
+      <c r="G35" s="12">
         <v>0.58650000000000002</v>
       </c>
-      <c r="G35" s="12">
+      <c r="H35" s="12">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H35" s="12">
+      <c r="I35" s="12">
         <v>0.58189999999999997</v>
       </c>
-      <c r="I35" s="23">
+      <c r="J35" s="23">
         <v>0.55869999999999997</v>
       </c>
-      <c r="J35" s="23">
+      <c r="K35" s="23">
         <v>0.55259999999999998</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>0.51739999999999997</v>
       </c>
-      <c r="L35" s="23">
+      <c r="M35" s="23">
         <v>0.55359999999999998</v>
       </c>
-      <c r="M35" s="27">
+      <c r="N35" s="27">
         <v>0.49669999999999997</v>
       </c>
-      <c r="N35" s="82">
+      <c r="O35" s="81">
         <v>0.54139999999999999</v>
       </c>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="73">
+        <v>52</v>
+      </c>
+      <c r="E36" s="27">
         <v>0.49059999999999998</v>
       </c>
-      <c r="E36" s="17">
+      <c r="F36" s="17">
         <v>0.47099999999999997</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>0.53420000000000001</v>
       </c>
-      <c r="G36" s="70">
+      <c r="H36" s="70">
         <v>0.54</v>
       </c>
-      <c r="H36" s="23">
+      <c r="I36" s="23">
         <v>0.55730000000000002</v>
       </c>
-      <c r="I36" s="23">
+      <c r="J36" s="23">
         <v>0.54020000000000001</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>0.53480000000000005</v>
       </c>
-      <c r="K36" s="23">
+      <c r="L36" s="23">
         <v>0.54459999999999997</v>
       </c>
-      <c r="L36" s="23">
+      <c r="M36" s="23">
         <v>0.55289999999999995</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N36" s="9">
         <v>0.44359999999999999</v>
       </c>
-      <c r="N36" s="78">
+      <c r="O36" s="77">
         <v>0.53939999999999999</v>
       </c>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="73">
+        <v>50</v>
+      </c>
+      <c r="E37" s="23">
         <v>0.54090000000000005</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <v>0.51970000000000005</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G37" s="27">
         <v>0.48849999999999999</v>
       </c>
-      <c r="G37" s="23">
+      <c r="H37" s="23">
         <v>0.54479999999999995</v>
       </c>
-      <c r="H37" s="23">
+      <c r="I37" s="23">
         <v>0.55159999999999998</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>0.53720000000000001</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>0.52659999999999996</v>
       </c>
-      <c r="K37" s="23">
+      <c r="L37" s="23">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L37" s="8">
+      <c r="M37" s="8">
         <v>0.52629999999999999</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>0.53149999999999997</v>
       </c>
-      <c r="N37" s="78">
+      <c r="O37" s="77">
         <v>0.53920000000000001</v>
       </c>
-      <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="74">
+        <v>37</v>
+      </c>
+      <c r="E38" s="13">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E38" s="20">
+      <c r="F38" s="20">
         <v>0.50980000000000003</v>
       </c>
-      <c r="F38" s="67">
+      <c r="G38" s="67">
         <v>0.47</v>
       </c>
-      <c r="G38" s="65">
+      <c r="H38" s="65">
         <v>0.49890000000000001</v>
       </c>
-      <c r="H38" s="40">
+      <c r="I38" s="40">
         <v>0.55659999999999998</v>
       </c>
-      <c r="I38" s="53">
+      <c r="J38" s="53">
         <v>0.56340000000000001</v>
       </c>
-      <c r="J38" s="41">
+      <c r="K38" s="41">
         <v>0.52339999999999998</v>
       </c>
-      <c r="K38" s="41">
+      <c r="L38" s="41">
         <v>0.53849999999999998</v>
       </c>
-      <c r="L38" s="40">
+      <c r="M38" s="40">
         <v>0.54830000000000001</v>
       </c>
-      <c r="M38" s="39">
+      <c r="N38" s="39">
         <v>0.51959999999999995</v>
       </c>
-      <c r="N38" s="79">
+      <c r="O38" s="78">
         <v>0.53910000000000002</v>
       </c>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="74">
+        <v>47</v>
+      </c>
+      <c r="E39" s="13">
         <v>0.56520000000000004</v>
       </c>
-      <c r="E39" s="13">
+      <c r="F39" s="13">
         <v>0.57010000000000005</v>
       </c>
-      <c r="F39" s="53">
+      <c r="G39" s="53">
         <v>0.58160000000000001</v>
       </c>
-      <c r="G39" s="39">
+      <c r="H39" s="39">
         <v>0.50309999999999999</v>
       </c>
-      <c r="H39" s="53">
+      <c r="I39" s="53">
         <v>0.56320000000000003</v>
       </c>
-      <c r="I39" s="40">
+      <c r="J39" s="40">
         <v>0.55610000000000004</v>
       </c>
-      <c r="J39" s="39">
+      <c r="K39" s="39">
         <v>0.51639999999999997</v>
       </c>
-      <c r="K39" s="41">
+      <c r="L39" s="41">
         <v>0.53469999999999995</v>
       </c>
-      <c r="L39" s="41">
+      <c r="M39" s="41">
         <v>0.52669999999999995</v>
       </c>
-      <c r="M39" s="39">
+      <c r="N39" s="39">
         <v>0.50780000000000003</v>
       </c>
-      <c r="N39" s="79">
+      <c r="O39" s="78">
         <v>0.53790000000000004</v>
       </c>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="74">
+        <v>29</v>
+      </c>
+      <c r="E40" s="13">
         <v>0.59260000000000002</v>
       </c>
-      <c r="E40" s="14">
+      <c r="F40" s="14">
         <v>0.54010000000000002</v>
       </c>
-      <c r="F40" s="39">
+      <c r="G40" s="39">
         <v>0.50529999999999997</v>
       </c>
-      <c r="G40" s="39">
+      <c r="H40" s="39">
         <v>0.51380000000000003</v>
       </c>
-      <c r="H40" s="41">
+      <c r="I40" s="41">
         <v>0.52259999999999995</v>
       </c>
-      <c r="I40" s="40">
+      <c r="J40" s="40">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J40" s="40">
+      <c r="K40" s="40">
         <v>0.54559999999999997</v>
       </c>
-      <c r="K40" s="41">
+      <c r="L40" s="41">
         <v>0.53149999999999997</v>
       </c>
-      <c r="L40" s="40">
+      <c r="M40" s="40">
         <v>0.54359999999999997</v>
       </c>
-      <c r="M40" s="40">
+      <c r="N40" s="40">
         <v>0.55089999999999995</v>
       </c>
-      <c r="N40" s="79">
+      <c r="O40" s="78">
         <v>0.53669999999999995</v>
       </c>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="74">
+        <v>45</v>
+      </c>
+      <c r="E41" s="19">
         <v>0.47249999999999998</v>
       </c>
-      <c r="E41" s="29">
+      <c r="F41" s="29">
         <v>0.54</v>
       </c>
-      <c r="F41" s="40">
+      <c r="G41" s="40">
         <v>0.5454</v>
       </c>
-      <c r="G41" s="41">
+      <c r="H41" s="41">
         <v>0.52129999999999999</v>
       </c>
-      <c r="H41" s="53">
+      <c r="I41" s="53">
         <v>0.56769999999999998</v>
       </c>
-      <c r="I41" s="41">
+      <c r="J41" s="41">
         <v>0.53620000000000001</v>
       </c>
-      <c r="J41" s="41">
+      <c r="K41" s="41">
         <v>0.53500000000000003</v>
       </c>
-      <c r="K41" s="41">
+      <c r="L41" s="41">
         <v>0.52949999999999997</v>
       </c>
-      <c r="L41" s="41">
+      <c r="M41" s="41">
         <v>0.52600000000000002</v>
       </c>
-      <c r="M41" s="39">
+      <c r="N41" s="39">
         <v>0.51649999999999996</v>
       </c>
-      <c r="N41" s="79">
+      <c r="O41" s="78">
         <v>0.53590000000000004</v>
       </c>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="74">
+        <v>27</v>
+      </c>
+      <c r="E42" s="7">
         <v>0.45710000000000001</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="10">
         <v>0.52259999999999995</v>
       </c>
-      <c r="F42" s="65">
+      <c r="G42" s="65">
         <v>0.49109999999999998</v>
       </c>
-      <c r="G42" s="41">
+      <c r="H42" s="41">
         <v>0.5353</v>
       </c>
-      <c r="H42" s="41">
+      <c r="I42" s="41">
         <v>0.53620000000000001</v>
       </c>
-      <c r="I42" s="41">
+      <c r="J42" s="41">
         <v>0.53590000000000004</v>
       </c>
-      <c r="J42" s="40">
+      <c r="K42" s="40">
         <v>0.54430000000000001</v>
       </c>
-      <c r="K42" s="41">
+      <c r="L42" s="41">
         <v>0.53669999999999995</v>
       </c>
-      <c r="L42" s="41">
+      <c r="M42" s="41">
         <v>0.52969999999999995</v>
       </c>
-      <c r="M42" s="41">
+      <c r="N42" s="41">
         <v>0.53010000000000002</v>
       </c>
-      <c r="N42" s="79">
+      <c r="O42" s="78">
         <v>0.53559999999999997</v>
       </c>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="74">
+        <v>7</v>
+      </c>
+      <c r="E43" s="10">
         <v>0.53849999999999998</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="10">
         <v>0.53539999999999999</v>
       </c>
-      <c r="F43" s="41">
+      <c r="G43" s="41">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G43" s="41">
+      <c r="H43" s="41">
         <v>0.52200000000000002</v>
       </c>
-      <c r="H43" s="40">
+      <c r="I43" s="40">
         <v>0.55300000000000005</v>
       </c>
-      <c r="I43" s="41">
+      <c r="J43" s="41">
         <v>0.53010000000000002</v>
       </c>
-      <c r="J43" s="40">
+      <c r="K43" s="40">
         <v>0.54659999999999997</v>
       </c>
-      <c r="K43" s="41">
+      <c r="L43" s="41">
         <v>0.52410000000000001</v>
       </c>
-      <c r="L43" s="41">
+      <c r="M43" s="41">
         <v>0.52759999999999996</v>
       </c>
-      <c r="M43" s="48">
+      <c r="N43" s="48">
         <v>0.5</v>
       </c>
-      <c r="N43" s="79">
+      <c r="O43" s="78">
         <v>0.53420000000000001</v>
       </c>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="73">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11">
         <v>0.61109999999999998</v>
       </c>
-      <c r="E44" s="12">
+      <c r="F44" s="12">
         <v>0.58079999999999998</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>0.51910000000000001</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>0.50980000000000003</v>
       </c>
-      <c r="H44" s="8">
+      <c r="I44" s="8">
         <v>0.52639999999999998</v>
       </c>
-      <c r="I44" s="8">
+      <c r="J44" s="8">
         <v>0.52439999999999998</v>
       </c>
-      <c r="J44" s="23">
+      <c r="K44" s="23">
         <v>0.54200000000000004</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>0.52480000000000004</v>
       </c>
-      <c r="L44" s="8">
+      <c r="M44" s="8">
         <v>0.52900000000000003</v>
       </c>
-      <c r="M44" s="23">
+      <c r="N44" s="23">
         <v>0.54649999999999999</v>
       </c>
-      <c r="N44" s="78">
+      <c r="O44" s="77">
         <v>0.53390000000000004</v>
       </c>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="73">
+        <v>14</v>
+      </c>
+      <c r="E45" s="9">
         <v>0.45710000000000001</v>
       </c>
-      <c r="E45" s="17">
+      <c r="F45" s="17">
         <v>0.47270000000000001</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>0.52370000000000005</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <v>0.51870000000000005</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>0.50609999999999999</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>0.53220000000000001</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>0.5363</v>
       </c>
-      <c r="K45" s="23">
+      <c r="L45" s="23">
         <v>0.54600000000000004</v>
       </c>
-      <c r="L45" s="23">
+      <c r="M45" s="23">
         <v>0.54979999999999996</v>
       </c>
-      <c r="M45" s="8">
+      <c r="N45" s="8">
         <v>0.53129999999999999</v>
       </c>
-      <c r="N45" s="78">
+      <c r="O45" s="77">
         <v>0.53390000000000004</v>
       </c>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="73">
+        <v>60</v>
+      </c>
+      <c r="E46" s="12">
         <v>0.56759999999999999</v>
       </c>
-      <c r="E46" s="23">
+      <c r="F46" s="23">
         <v>0.55459999999999998</v>
       </c>
-      <c r="F46" s="27">
+      <c r="G46" s="27">
         <v>0.49630000000000002</v>
       </c>
-      <c r="G46" s="27">
+      <c r="H46" s="27">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>0.51280000000000003</v>
       </c>
-      <c r="I46" s="23">
+      <c r="J46" s="23">
         <v>0.55130000000000001</v>
       </c>
-      <c r="J46" s="23">
+      <c r="K46" s="23">
         <v>0.55769999999999997</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>0.51259999999999994</v>
       </c>
-      <c r="L46" s="23">
+      <c r="M46" s="23">
         <v>0.54720000000000002</v>
       </c>
-      <c r="M46" s="23">
+      <c r="N46" s="23">
         <v>0.55659999999999998</v>
       </c>
-      <c r="N46" s="78">
+      <c r="O46" s="77">
         <v>0.53380000000000005</v>
       </c>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="73">
+        <v>20</v>
+      </c>
+      <c r="E47" s="8">
         <v>0.52329999999999999</v>
       </c>
-      <c r="E47" s="16">
+      <c r="F47" s="16">
         <v>0.5</v>
       </c>
-      <c r="F47" s="23">
+      <c r="G47" s="23">
         <v>0.54520000000000002</v>
       </c>
-      <c r="G47" s="12">
+      <c r="H47" s="12">
         <v>0.58860000000000001</v>
       </c>
-      <c r="H47" s="23">
+      <c r="I47" s="23">
         <v>0.5585</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>0.52690000000000003</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>0.51539999999999997</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>0.53120000000000001</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>0.51359999999999995</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <v>0.50860000000000005</v>
       </c>
-      <c r="N47" s="78">
+      <c r="O47" s="77">
         <v>0.53349999999999997</v>
       </c>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="73">
+        <v>35</v>
+      </c>
+      <c r="E48" s="9">
         <v>0.42859999999999998</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>0.53490000000000004</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>0.52270000000000005</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>0.51249999999999996</v>
       </c>
-      <c r="H48" s="16">
+      <c r="I48" s="16">
         <v>0.5</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>0.52149999999999996</v>
       </c>
-      <c r="J48" s="23">
+      <c r="K48" s="23">
         <v>0.54220000000000002</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>0.52490000000000003</v>
       </c>
-      <c r="L48" s="23">
+      <c r="M48" s="23">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <v>0.51519999999999999</v>
       </c>
-      <c r="N48" s="78">
+      <c r="O48" s="77">
         <v>0.53300000000000003</v>
       </c>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="74">
+        <v>41</v>
+      </c>
+      <c r="E49" s="18">
         <v>0.61880000000000002</v>
       </c>
-      <c r="E49" s="13">
+      <c r="F49" s="13">
         <v>0.58550000000000002</v>
       </c>
-      <c r="F49" s="53">
+      <c r="G49" s="53">
         <v>0.5978</v>
       </c>
-      <c r="G49" s="53">
+      <c r="H49" s="53">
         <v>0.56100000000000005</v>
       </c>
-      <c r="H49" s="41">
+      <c r="I49" s="41">
         <v>0.52829999999999999</v>
       </c>
-      <c r="I49" s="41">
+      <c r="J49" s="41">
         <v>0.53549999999999998</v>
       </c>
-      <c r="J49" s="41">
+      <c r="K49" s="41">
         <v>0.52969999999999995</v>
       </c>
-      <c r="K49" s="39">
+      <c r="L49" s="39">
         <v>0.51259999999999994</v>
       </c>
-      <c r="L49" s="39">
+      <c r="M49" s="39">
         <v>0.51339999999999997</v>
       </c>
-      <c r="M49" s="65">
+      <c r="N49" s="65">
         <v>0.48809999999999998</v>
       </c>
-      <c r="N49" s="79">
+      <c r="O49" s="78">
         <v>0.53239999999999998</v>
       </c>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="74">
+        <v>19</v>
+      </c>
+      <c r="E50" s="19">
         <v>0.47189999999999999</v>
       </c>
-      <c r="E50" s="20">
+      <c r="F50" s="20">
         <v>0.51770000000000005</v>
       </c>
-      <c r="F50" s="39">
+      <c r="G50" s="39">
         <v>0.50519999999999998</v>
       </c>
-      <c r="G50" s="65">
+      <c r="H50" s="65">
         <v>0.48920000000000002</v>
       </c>
-      <c r="H50" s="40">
+      <c r="I50" s="40">
         <v>0.54079999999999995</v>
       </c>
-      <c r="I50" s="40">
+      <c r="J50" s="40">
         <v>0.54979999999999996</v>
       </c>
-      <c r="J50" s="41">
+      <c r="K50" s="41">
         <v>0.53049999999999997</v>
       </c>
-      <c r="K50" s="40">
+      <c r="L50" s="40">
         <v>0.55269999999999997</v>
       </c>
-      <c r="L50" s="40">
+      <c r="M50" s="40">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M50" s="53">
+      <c r="N50" s="53">
         <v>0.56020000000000003</v>
       </c>
-      <c r="N50" s="79">
+      <c r="O50" s="78">
         <v>0.53210000000000002</v>
       </c>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="74">
+        <v>61</v>
+      </c>
+      <c r="E51" s="20">
         <v>0.51429999999999998</v>
       </c>
-      <c r="E51" s="20">
+      <c r="F51" s="20">
         <v>0.5181</v>
       </c>
-      <c r="F51" s="40">
+      <c r="G51" s="40">
         <v>0.55559999999999998</v>
       </c>
-      <c r="G51" s="41">
+      <c r="H51" s="41">
         <v>0.52649999999999997</v>
       </c>
-      <c r="H51" s="40">
+      <c r="I51" s="40">
         <v>0.54869999999999997</v>
       </c>
-      <c r="I51" s="41">
+      <c r="J51" s="41">
         <v>0.53239999999999998</v>
       </c>
-      <c r="J51" s="40">
+      <c r="K51" s="40">
         <v>0.54779999999999995</v>
       </c>
-      <c r="K51" s="40">
+      <c r="L51" s="40">
         <v>0.54420000000000002</v>
       </c>
-      <c r="L51" s="41">
+      <c r="M51" s="41">
         <v>0.52900000000000003</v>
       </c>
-      <c r="M51" s="39">
+      <c r="N51" s="39">
         <v>0.50449999999999995</v>
       </c>
-      <c r="N51" s="79">
+      <c r="O51" s="78">
         <v>0.53210000000000002</v>
       </c>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="73">
+        <v>6</v>
+      </c>
+      <c r="E52" s="8">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="9">
         <v>0.43480000000000002</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>0.52080000000000004</v>
       </c>
-      <c r="G52" s="17">
+      <c r="H52" s="17">
         <v>0.47560000000000002</v>
       </c>
-      <c r="H52" s="8">
+      <c r="I52" s="8">
         <v>0.53820000000000001</v>
       </c>
-      <c r="I52" s="8">
+      <c r="J52" s="8">
         <v>0.5383</v>
       </c>
-      <c r="J52" s="8">
+      <c r="K52" s="8">
         <v>0.53869999999999996</v>
       </c>
-      <c r="K52" s="6">
+      <c r="L52" s="6">
         <v>0.51859999999999995</v>
       </c>
-      <c r="L52" s="23">
+      <c r="M52" s="23">
         <v>0.54120000000000001</v>
       </c>
-      <c r="M52" s="23">
+      <c r="N52" s="23">
         <v>0.54630000000000001</v>
       </c>
-      <c r="N52" s="78">
+      <c r="O52" s="77">
         <v>0.53039999999999998</v>
       </c>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="73">
+        <v>70</v>
+      </c>
+      <c r="E53" s="12">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E53" s="8">
+      <c r="F53" s="8">
         <v>0.52229999999999999</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <v>0.51719999999999999</v>
       </c>
-      <c r="G53" s="27">
+      <c r="H53" s="27">
         <v>0.49840000000000001</v>
       </c>
-      <c r="H53" s="23">
+      <c r="I53" s="23">
         <v>0.55510000000000004</v>
       </c>
-      <c r="I53" s="8">
+      <c r="J53" s="8">
         <v>0.52300000000000002</v>
       </c>
-      <c r="J53" s="8">
+      <c r="K53" s="8">
         <v>0.52339999999999998</v>
       </c>
-      <c r="K53" s="8">
+      <c r="L53" s="8">
         <v>0.52869999999999995</v>
       </c>
-      <c r="L53" s="8">
+      <c r="M53" s="8">
         <v>0.5222</v>
       </c>
-      <c r="M53" s="23">
+      <c r="N53" s="23">
         <v>0.54069999999999996</v>
       </c>
-      <c r="N53" s="78">
+      <c r="O53" s="77">
         <v>0.52859999999999996</v>
       </c>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="73">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
         <v>0.52270000000000005</v>
       </c>
-      <c r="E54" s="23">
+      <c r="F54" s="23">
         <v>0.54649999999999999</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>0.51090000000000002</v>
       </c>
-      <c r="G54" s="16">
+      <c r="H54" s="16">
         <v>0.51</v>
       </c>
-      <c r="H54" s="8">
+      <c r="I54" s="8">
         <v>0.52959999999999996</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>0.52210000000000001</v>
       </c>
-      <c r="J54" s="8">
+      <c r="K54" s="8">
         <v>0.53669999999999995</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>0.53520000000000001</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="6">
         <v>0.51870000000000005</v>
       </c>
-      <c r="M54" s="8">
+      <c r="N54" s="8">
         <v>0.52349999999999997</v>
       </c>
-      <c r="N54" s="78">
+      <c r="O54" s="77">
         <v>0.5282</v>
       </c>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="73">
+        <v>30</v>
+      </c>
+      <c r="E55" s="11">
         <v>0.60619999999999996</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F55" s="8">
         <v>0.5323</v>
       </c>
-      <c r="F55" s="6">
+      <c r="G55" s="6">
         <v>0.50629999999999997</v>
       </c>
-      <c r="G55" s="27">
+      <c r="H55" s="27">
         <v>0.4955</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>0.51829999999999998</v>
       </c>
-      <c r="I55" s="23">
+      <c r="J55" s="23">
         <v>0.54359999999999997</v>
       </c>
-      <c r="J55" s="8">
+      <c r="K55" s="8">
         <v>0.52470000000000006</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>0.53800000000000003</v>
       </c>
-      <c r="L55" s="6">
+      <c r="M55" s="6">
         <v>0.51859999999999995</v>
       </c>
-      <c r="M55" s="16">
+      <c r="N55" s="16">
         <v>0.51</v>
       </c>
-      <c r="N55" s="78">
+      <c r="O55" s="77">
         <v>0.52800000000000002</v>
       </c>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="73">
+        <v>10</v>
+      </c>
+      <c r="E56" s="12">
         <v>0.58989999999999998</v>
       </c>
-      <c r="E56" s="6">
+      <c r="F56" s="6">
         <v>0.50439999999999996</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G56" s="27">
         <v>0.4884</v>
       </c>
-      <c r="G56" s="16">
+      <c r="H56" s="16">
         <v>0.5</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>0.50349999999999995</v>
       </c>
-      <c r="I56" s="23">
+      <c r="J56" s="23">
         <v>0.5494</v>
       </c>
-      <c r="J56" s="23">
+      <c r="K56" s="23">
         <v>0.54949999999999999</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>0.53720000000000001</v>
       </c>
-      <c r="L56" s="8">
+      <c r="M56" s="8">
         <v>0.52349999999999997</v>
       </c>
-      <c r="M56" s="6">
+      <c r="N56" s="6">
         <v>0.51400000000000001</v>
       </c>
-      <c r="N56" s="78">
+      <c r="O56" s="77">
         <v>0.52769999999999995</v>
       </c>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="73">
+        <v>38</v>
+      </c>
+      <c r="E57" s="27">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E57" s="6">
+      <c r="F57" s="6">
         <v>0.51060000000000005</v>
       </c>
-      <c r="F57" s="17">
+      <c r="G57" s="17">
         <v>0.4763</v>
       </c>
-      <c r="G57" s="8">
+      <c r="H57" s="8">
         <v>0.53039999999999998</v>
       </c>
-      <c r="H57" s="8">
+      <c r="I57" s="8">
         <v>0.53359999999999996</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>0.52329999999999999</v>
       </c>
-      <c r="J57" s="8">
+      <c r="K57" s="8">
         <v>0.52669999999999995</v>
       </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
         <v>0.53259999999999996</v>
       </c>
-      <c r="L57" s="8">
+      <c r="M57" s="8">
         <v>0.53369999999999995</v>
       </c>
-      <c r="M57" s="6">
+      <c r="N57" s="6">
         <v>0.51219999999999999</v>
       </c>
-      <c r="N57" s="78">
+      <c r="O57" s="77">
         <v>0.52690000000000003</v>
       </c>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="73">
+        <v>26</v>
+      </c>
+      <c r="E58" s="24">
         <v>0.7</v>
       </c>
-      <c r="E58" s="25">
+      <c r="F58" s="25">
         <v>0.6</v>
       </c>
-      <c r="F58" s="23">
+      <c r="G58" s="23">
         <v>0.54390000000000005</v>
       </c>
-      <c r="G58" s="23">
+      <c r="H58" s="23">
         <v>0.55069999999999997</v>
       </c>
-      <c r="H58" s="12">
+      <c r="I58" s="12">
         <v>0.56640000000000001</v>
       </c>
-      <c r="I58" s="12">
+      <c r="J58" s="12">
         <v>0.57210000000000005</v>
       </c>
-      <c r="J58" s="8">
+      <c r="K58" s="8">
         <v>0.53190000000000004</v>
       </c>
-      <c r="K58" s="8">
+      <c r="L58" s="8">
         <v>0.52080000000000004</v>
       </c>
-      <c r="L58" s="8">
+      <c r="M58" s="8">
         <v>0.5292</v>
       </c>
-      <c r="M58" s="27">
+      <c r="N58" s="27">
         <v>0.49909999999999999</v>
       </c>
-      <c r="N58" s="78">
+      <c r="O58" s="77">
         <v>0.52580000000000005</v>
       </c>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="74">
+        <v>83</v>
+      </c>
+      <c r="E59" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E59" s="20">
+      <c r="F59" s="20">
         <v>0.50890000000000002</v>
       </c>
-      <c r="F59" s="41">
+      <c r="G59" s="41">
         <v>0.5262</v>
       </c>
-      <c r="G59" s="39">
+      <c r="H59" s="39">
         <v>0.51880000000000004</v>
       </c>
-      <c r="H59" s="40">
+      <c r="I59" s="40">
         <v>0.55089999999999995</v>
       </c>
-      <c r="I59" s="41">
+      <c r="J59" s="41">
         <v>0.52370000000000005</v>
       </c>
-      <c r="J59" s="41">
+      <c r="K59" s="41">
         <v>0.53269999999999995</v>
       </c>
-      <c r="K59" s="39">
+      <c r="L59" s="39">
         <v>0.51649999999999996</v>
       </c>
-      <c r="L59" s="39">
+      <c r="M59" s="39">
         <v>0.51770000000000005</v>
       </c>
-      <c r="M59" s="39">
+      <c r="N59" s="39">
         <v>0.51339999999999997</v>
       </c>
-      <c r="N59" s="79">
+      <c r="O59" s="78">
         <v>0.52470000000000006</v>
       </c>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="73">
+        <v>12</v>
+      </c>
+      <c r="E60" s="9">
         <v>0.42859999999999998</v>
       </c>
-      <c r="E60" s="16">
+      <c r="F60" s="16">
         <v>0.5</v>
       </c>
-      <c r="F60" s="22">
+      <c r="G60" s="22">
         <v>0.46010000000000001</v>
       </c>
-      <c r="G60" s="17">
+      <c r="H60" s="17">
         <v>0.47839999999999999</v>
       </c>
-      <c r="H60" s="6">
+      <c r="I60" s="6">
         <v>0.50900000000000001</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>0.50049999999999994</v>
       </c>
-      <c r="J60" s="23">
+      <c r="K60" s="23">
         <v>0.55520000000000003</v>
       </c>
-      <c r="K60" s="23">
+      <c r="L60" s="23">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L60" s="23">
+      <c r="M60" s="23">
         <v>0.55759999999999998</v>
       </c>
-      <c r="M60" s="9">
+      <c r="N60" s="9">
         <v>0.45850000000000002</v>
       </c>
-      <c r="N60" s="78">
+      <c r="O60" s="77">
         <v>0.52459999999999996</v>
       </c>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="73">
+        <v>76</v>
+      </c>
+      <c r="E61" s="16">
         <v>0.5</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="9">
         <v>0.4511</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="6">
         <v>0.50629999999999997</v>
       </c>
-      <c r="G61" s="27">
+      <c r="H61" s="27">
         <v>0.49919999999999998</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="6">
         <v>0.50119999999999998</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>0.51910000000000001</v>
       </c>
-      <c r="J61" s="23">
+      <c r="K61" s="23">
         <v>0.54139999999999999</v>
       </c>
-      <c r="K61" s="8">
+      <c r="L61" s="8">
         <v>0.52959999999999996</v>
       </c>
-      <c r="L61" s="23">
+      <c r="M61" s="23">
         <v>0.54179999999999995</v>
       </c>
-      <c r="M61" s="6">
+      <c r="N61" s="6">
         <v>0.5121</v>
       </c>
-      <c r="N61" s="78">
+      <c r="O61" s="77">
         <v>0.52400000000000002</v>
       </c>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="73">
+        <v>18</v>
+      </c>
+      <c r="E62" s="11">
         <v>0.6129</v>
       </c>
-      <c r="E62" s="8">
+      <c r="F62" s="8">
         <v>0.5272</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <v>0.51270000000000004</v>
       </c>
-      <c r="G62" s="27">
+      <c r="H62" s="27">
         <v>0.48549999999999999</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="6">
         <v>0.51200000000000001</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>0.51370000000000005</v>
       </c>
-      <c r="J62" s="23">
+      <c r="K62" s="23">
         <v>0.55359999999999998</v>
       </c>
-      <c r="K62" s="12">
+      <c r="L62" s="12">
         <v>0.59450000000000003</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>0.50439999999999996</v>
       </c>
-      <c r="M62" s="66">
+      <c r="N62" s="66">
         <v>0</v>
       </c>
-      <c r="N62" s="78">
+      <c r="O62" s="77">
         <v>0.5232</v>
       </c>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="3"/>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="74">
+        <v>23</v>
+      </c>
+      <c r="E63" s="10">
         <v>0.5333</v>
       </c>
-      <c r="E63" s="20">
+      <c r="F63" s="20">
         <v>0.51519999999999999</v>
       </c>
-      <c r="F63" s="65">
+      <c r="G63" s="65">
         <v>0.49790000000000001</v>
       </c>
-      <c r="G63" s="40">
+      <c r="H63" s="40">
         <v>0.54720000000000002</v>
       </c>
-      <c r="H63" s="39">
+      <c r="I63" s="39">
         <v>0.51370000000000005</v>
       </c>
-      <c r="I63" s="39">
+      <c r="J63" s="39">
         <v>0.50980000000000003</v>
       </c>
-      <c r="J63" s="39">
+      <c r="K63" s="39">
         <v>0.50470000000000004</v>
       </c>
-      <c r="K63" s="41">
+      <c r="L63" s="41">
         <v>0.52510000000000001</v>
       </c>
-      <c r="L63" s="41">
+      <c r="M63" s="41">
         <v>0.53200000000000003</v>
       </c>
-      <c r="M63" s="41">
+      <c r="N63" s="41">
         <v>0.52990000000000004</v>
       </c>
-      <c r="N63" s="79">
+      <c r="O63" s="78">
         <v>0.52280000000000004</v>
       </c>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="3"/>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="74">
+        <v>43</v>
+      </c>
+      <c r="E64" s="13">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E64" s="14">
+      <c r="F64" s="14">
         <v>0.54310000000000003</v>
       </c>
-      <c r="F64" s="65">
+      <c r="G64" s="65">
         <v>0.48659999999999998</v>
       </c>
-      <c r="G64" s="38">
+      <c r="H64" s="38">
         <v>0.47870000000000001</v>
       </c>
-      <c r="H64" s="65">
+      <c r="I64" s="65">
         <v>0.48409999999999997</v>
       </c>
-      <c r="I64" s="40">
+      <c r="J64" s="40">
         <v>0.54949999999999999</v>
       </c>
-      <c r="J64" s="39">
+      <c r="K64" s="39">
         <v>0.50290000000000001</v>
       </c>
-      <c r="K64" s="41">
+      <c r="L64" s="41">
         <v>0.52829999999999999</v>
       </c>
-      <c r="L64" s="41">
+      <c r="M64" s="41">
         <v>0.53320000000000001</v>
       </c>
-      <c r="M64" s="39">
+      <c r="N64" s="39">
         <v>0.50480000000000003</v>
       </c>
-      <c r="N64" s="79">
+      <c r="O64" s="78">
         <v>0.52259999999999995</v>
       </c>
-      <c r="T64" s="3"/>
-    </row>
-    <row r="65" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="74">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7">
         <v>0.41839999999999999</v>
       </c>
-      <c r="E65" s="20">
+      <c r="F65" s="20">
         <v>0.51529999999999998</v>
       </c>
-      <c r="F65" s="41">
+      <c r="G65" s="41">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G65" s="41">
+      <c r="H65" s="41">
         <v>0.5242</v>
       </c>
-      <c r="H65" s="65">
+      <c r="I65" s="65">
         <v>0.49930000000000002</v>
       </c>
-      <c r="I65" s="41">
+      <c r="J65" s="41">
         <v>0.52349999999999997</v>
       </c>
-      <c r="J65" s="39">
+      <c r="K65" s="39">
         <v>0.51029999999999998</v>
       </c>
-      <c r="K65" s="41">
+      <c r="L65" s="41">
         <v>0.5343</v>
       </c>
-      <c r="L65" s="39">
+      <c r="M65" s="39">
         <v>0.51629999999999998</v>
       </c>
-      <c r="M65" s="41">
+      <c r="N65" s="41">
         <v>0.52410000000000001</v>
       </c>
-      <c r="N65" s="79">
+      <c r="O65" s="78">
         <v>0.52139999999999997</v>
       </c>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="74">
+        <v>11</v>
+      </c>
+      <c r="E66" s="15">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E66" s="15">
+      <c r="F66" s="15">
         <v>0.4899</v>
       </c>
-      <c r="F66" s="39">
+      <c r="G66" s="39">
         <v>0.50419999999999998</v>
       </c>
-      <c r="G66" s="41">
+      <c r="H66" s="41">
         <v>0.52349999999999997</v>
       </c>
-      <c r="H66" s="39">
+      <c r="I66" s="39">
         <v>0.51459999999999995</v>
       </c>
-      <c r="I66" s="58">
+      <c r="J66" s="58">
         <v>0.52</v>
       </c>
-      <c r="J66" s="41">
+      <c r="K66" s="41">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K66" s="40">
+      <c r="L66" s="40">
         <v>0.54339999999999999</v>
       </c>
-      <c r="L66" s="41">
+      <c r="M66" s="41">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M66" s="41">
+      <c r="N66" s="41">
         <v>0.52610000000000001</v>
       </c>
-      <c r="N66" s="79">
+      <c r="O66" s="78">
         <v>0.52129999999999999</v>
       </c>
-      <c r="T66" s="3"/>
-    </row>
-    <row r="67" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="74">
+        <v>51</v>
+      </c>
+      <c r="E67" s="20">
         <v>0.51349999999999996</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F67" s="7">
         <v>0.45150000000000001</v>
       </c>
-      <c r="F67" s="39">
+      <c r="G67" s="39">
         <v>0.50249999999999995</v>
       </c>
-      <c r="G67" s="39">
+      <c r="H67" s="39">
         <v>0.50960000000000005</v>
       </c>
-      <c r="H67" s="39">
+      <c r="I67" s="39">
         <v>0.51049999999999995</v>
       </c>
-      <c r="I67" s="41">
+      <c r="J67" s="41">
         <v>0.53469999999999995</v>
       </c>
-      <c r="J67" s="40">
+      <c r="K67" s="40">
         <v>0.54490000000000005</v>
       </c>
-      <c r="K67" s="41">
+      <c r="L67" s="41">
         <v>0.52539999999999998</v>
       </c>
-      <c r="L67" s="41">
+      <c r="M67" s="41">
         <v>0.52449999999999997</v>
       </c>
-      <c r="M67" s="39">
+      <c r="N67" s="39">
         <v>0.51690000000000003</v>
       </c>
-      <c r="N67" s="79">
+      <c r="O67" s="78">
         <v>0.52110000000000001</v>
       </c>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="73">
+        <v>28</v>
+      </c>
+      <c r="E68" s="9">
         <v>0.4118</v>
       </c>
-      <c r="E68" s="9">
+      <c r="F68" s="9">
         <v>0.43730000000000002</v>
       </c>
-      <c r="F68" s="6">
+      <c r="G68" s="6">
         <v>0.50180000000000002</v>
       </c>
-      <c r="G68" s="23">
+      <c r="H68" s="23">
         <v>0.54110000000000003</v>
       </c>
-      <c r="H68" s="23">
+      <c r="I68" s="23">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>0.52859999999999996</v>
       </c>
-      <c r="J68" s="6">
+      <c r="K68" s="6">
         <v>0.51980000000000004</v>
       </c>
-      <c r="K68" s="8">
+      <c r="L68" s="8">
         <v>0.53290000000000004</v>
       </c>
-      <c r="L68" s="27">
+      <c r="M68" s="27">
         <v>0.49259999999999998</v>
       </c>
-      <c r="M68" s="17">
+      <c r="N68" s="17">
         <v>0.4713</v>
       </c>
-      <c r="N68" s="76">
+      <c r="O68" s="75">
         <v>0.51949999999999996</v>
       </c>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="74">
+        <v>25</v>
+      </c>
+      <c r="E69" s="7">
         <v>0.43959999999999999</v>
       </c>
-      <c r="E69" s="20">
+      <c r="F69" s="20">
         <v>0.51380000000000003</v>
       </c>
-      <c r="F69" s="41">
+      <c r="G69" s="41">
         <v>0.52710000000000001</v>
       </c>
-      <c r="G69" s="65">
+      <c r="H69" s="65">
         <v>0.49349999999999999</v>
       </c>
-      <c r="H69" s="39">
+      <c r="I69" s="39">
         <v>0.51619999999999999</v>
       </c>
-      <c r="I69" s="39">
+      <c r="J69" s="39">
         <v>0.51819999999999999</v>
       </c>
-      <c r="J69" s="39">
+      <c r="K69" s="39">
         <v>0.50080000000000002</v>
       </c>
-      <c r="K69" s="41">
+      <c r="L69" s="41">
         <v>0.52080000000000004</v>
       </c>
-      <c r="L69" s="40">
+      <c r="M69" s="40">
         <v>0.55269999999999997</v>
       </c>
-      <c r="M69" s="39">
+      <c r="N69" s="39">
         <v>0.51190000000000002</v>
       </c>
-      <c r="N69" s="77">
+      <c r="O69" s="76">
         <v>0.51900000000000002</v>
       </c>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
-      <c r="C70" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0.34150000000000003</v>
-      </c>
-      <c r="E70" s="15">
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="F70" s="65">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="G70" s="65">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="H70" s="41">
-        <v>0.52749999999999997</v>
-      </c>
-      <c r="I70" s="39">
-        <v>0.51970000000000005</v>
-      </c>
-      <c r="J70" s="39">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="K70" s="41">
-        <v>0.52829999999999999</v>
-      </c>
-      <c r="L70" s="41">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="M70" s="38">
-        <v>0.47489999999999999</v>
-      </c>
-      <c r="N70" s="77">
+      <c r="C70" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="73">
+        <v>2</v>
+      </c>
+      <c r="E70" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="F70" s="9">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="G70" s="27">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="H70" s="22">
+        <v>0.46010000000000001</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="K70" s="23">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="M70" s="8">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="O70" s="75">
         <v>0.51829999999999998</v>
       </c>
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U70" s="3"/>
+    </row>
+    <row r="71" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
       <c r="C71" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="74">
+        <v>59</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="G71" s="65">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H71" s="65">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="I71" s="41">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="J71" s="39">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="K71" s="39">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="L71" s="41">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="M71" s="41">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="N71" s="38">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="O71" s="76">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="U71" s="3"/>
+    </row>
+    <row r="72" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="3"/>
+      <c r="C72" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="74">
+        <v>17</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="G72" s="41">
+        <v>0.5393</v>
+      </c>
+      <c r="H72" s="39">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="I72" s="41">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J72" s="41">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="K72" s="39">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="L72" s="65">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="M72" s="39">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="N72" s="65">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="O72" s="76">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="3"/>
+      <c r="C73" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="74">
+        <v>71</v>
+      </c>
+      <c r="E73" s="28">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G73" s="65">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="H73" s="39">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="I73" s="39">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J73" s="65">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="K73" s="39">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="L73" s="41">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="M73" s="41">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="N73" s="39">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="O73" s="76">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="U73" s="3"/>
+    </row>
+    <row r="74" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="3"/>
+      <c r="C74" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="74">
+        <v>34</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="G74" s="41">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="H74" s="41">
+        <v>0.5363</v>
+      </c>
+      <c r="I74" s="40">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="J74" s="39">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="K74" s="39">
+        <v>0.502</v>
+      </c>
+      <c r="L74" s="39">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="M74" s="65">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="N74" s="65">
+        <v>0.4849</v>
+      </c>
+      <c r="O74" s="76">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="U74" s="3"/>
+    </row>
+    <row r="75" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="3"/>
+      <c r="C75" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="73">
+        <v>64</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="G75" s="27">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="H75" s="27">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="J75" s="23">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="M75" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="N75" s="27">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="O75" s="75">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="3"/>
+      <c r="C76" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="74">
+        <v>5</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.4471</v>
+      </c>
+      <c r="G76" s="38">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="H76" s="38">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="I76" s="39">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="J76" s="39">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="K76" s="40">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="L76" s="38">
+        <v>0.4753</v>
+      </c>
+      <c r="M76" s="41">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="N76" s="38">
+        <v>0.4733</v>
+      </c>
+      <c r="O76" s="76">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="3"/>
+      <c r="C77" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="73">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="M77" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="O77" s="75">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="3"/>
+      <c r="C78" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="74">
+        <v>63</v>
+      </c>
+      <c r="E78" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F78" s="20">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="G78" s="65">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="H78" s="39">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="I78" s="41">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="J78" s="41">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="K78" s="39">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="L78" s="39">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="M78" s="65">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="N78" s="39">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="O78" s="76">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="3"/>
+      <c r="C79" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="73">
+        <v>54</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="I79" s="27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="J79" s="27">
+        <v>0.4955</v>
+      </c>
+      <c r="K79" s="8">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="O79" s="75">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="3"/>
+      <c r="C80" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="74">
+        <v>85</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="G80" s="39">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="H80" s="38">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="I80" s="39">
+        <v>0.5121</v>
+      </c>
+      <c r="J80" s="65">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="K80" s="39">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="L80" s="39">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="M80" s="41">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="N80" s="39">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="O80" s="76">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="3"/>
+      <c r="C81" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="73">
+        <v>82</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.5302</v>
+      </c>
+      <c r="G81" s="23">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="H81" s="27">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="I81" s="23">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="M81" s="17">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="N81" s="17">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="O81" s="75">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="U81" s="3"/>
+    </row>
+    <row r="82" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="3"/>
+      <c r="C82" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="73">
         <v>84</v>
       </c>
-      <c r="D71" s="25">
+      <c r="E82" s="25">
         <v>0.6</v>
       </c>
-      <c r="E71" s="9">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="F71" s="27">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="G71" s="22">
-        <v>0.46010000000000001</v>
-      </c>
-      <c r="H71" s="27">
-        <v>0.48859999999999998</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="J71" s="23">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="K71" s="6">
-        <v>0.51459999999999995</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0.53380000000000005</v>
-      </c>
-      <c r="M71" s="6">
+      <c r="F82" s="9">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="J82" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K82" s="8">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="N82" s="27">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="O82" s="84">
+        <v>0.51</v>
+      </c>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="3"/>
+      <c r="C83" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="73">
+        <v>16</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="I83" s="27">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K83" s="23">
+        <v>0.5504</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="M83" s="27">
+        <v>0.4965</v>
+      </c>
+      <c r="N83" s="27">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="O83" s="75">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="U83" s="3"/>
+    </row>
+    <row r="84" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="3"/>
+      <c r="C84" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="74">
+        <v>67</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="G84" s="40">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="H84" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="41">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="J84" s="39">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="K84" s="39">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="L84" s="39">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="M84" s="40">
+        <v>0.5595</v>
+      </c>
+      <c r="N84" s="65">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="O84" s="76">
+        <v>0.5081</v>
+      </c>
+      <c r="U84" s="3"/>
+    </row>
+    <row r="85" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="3"/>
+      <c r="C85" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="74">
+        <v>33</v>
+      </c>
+      <c r="E85" s="26">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="F85" s="20">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="G85" s="41">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="H85" s="38">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="I85" s="39">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J85" s="39">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="K85" s="65">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L85" s="39">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="M85" s="41">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="N85" s="65">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="O85" s="76">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="U85" s="3"/>
+    </row>
+    <row r="86" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="3"/>
+      <c r="C86" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="73">
+        <v>24</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0.2727</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0.44879999999999998</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="H86" s="22">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J86" s="27">
+        <v>0.4899</v>
+      </c>
+      <c r="K86" s="8">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="N86" s="27">
+        <v>0.4975</v>
+      </c>
+      <c r="O86" s="75">
+        <v>0.503</v>
+      </c>
+      <c r="U86" s="3"/>
+    </row>
+    <row r="87" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="3"/>
+      <c r="C87" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="73">
+        <v>36</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G87" s="27">
+        <v>0.4824</v>
+      </c>
+      <c r="H87" s="27">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="I87" s="23">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.4864</v>
+      </c>
+      <c r="N87" s="9">
+        <v>0.4461</v>
+      </c>
+      <c r="O87" s="75">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="U87" s="3"/>
+    </row>
+    <row r="88" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="3"/>
+      <c r="C88" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="74">
+        <v>53</v>
+      </c>
+      <c r="E88" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0.55759999999999998</v>
+      </c>
+      <c r="G88" s="65">
+        <v>0.4834</v>
+      </c>
+      <c r="H88" s="71">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="I88" s="39">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="J88" s="39">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="K88" s="65">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="L88" s="39">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="M88" s="38">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="N88" s="65">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="O88" s="76">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="U88" s="3"/>
+    </row>
+    <row r="89" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="3"/>
+      <c r="C89" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="73">
+        <v>62</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="F89" s="27">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="G89" s="23">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="H89" s="27">
+        <v>0.4929</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="J89" s="6">
         <v>0.50570000000000004</v>
       </c>
-      <c r="N71" s="76">
-        <v>0.51829999999999998</v>
-      </c>
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="3"/>
-      <c r="C72" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="14">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="E72" s="14">
-        <v>0.54020000000000001</v>
-      </c>
-      <c r="F72" s="41">
-        <v>0.5393</v>
-      </c>
-      <c r="G72" s="39">
-        <v>0.51959999999999995</v>
-      </c>
-      <c r="H72" s="41">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="I72" s="41">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="J72" s="39">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="K72" s="65">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="L72" s="39">
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="M72" s="65">
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="N72" s="77">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="3"/>
-      <c r="C73" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="28">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="F73" s="65">
-        <v>0.49880000000000002</v>
-      </c>
-      <c r="G73" s="39">
-        <v>0.50890000000000002</v>
-      </c>
-      <c r="H73" s="39">
+      <c r="K89" s="27">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="L89" s="27">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="M89" s="27">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="O89" s="82">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="2:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="3"/>
+      <c r="C90" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="88">
+        <v>40</v>
+      </c>
+      <c r="E90" s="91">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="F90" s="90">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="G90" s="92">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="H90" s="89">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="I90" s="90">
         <v>0.50900000000000001</v>
       </c>
-      <c r="I73" s="65">
-        <v>0.48309999999999997</v>
-      </c>
-      <c r="J73" s="39">
-        <v>0.50629999999999997</v>
-      </c>
-      <c r="K73" s="41">
-        <v>0.53539999999999999</v>
-      </c>
-      <c r="L73" s="41">
-        <v>0.53059999999999996</v>
-      </c>
-      <c r="M73" s="39">
-        <v>0.51190000000000002</v>
-      </c>
-      <c r="N73" s="77">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="3"/>
-      <c r="C74" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="E74" s="13">
-        <v>0.56569999999999998</v>
-      </c>
-      <c r="F74" s="41">
-        <v>0.52329999999999999</v>
-      </c>
-      <c r="G74" s="41">
-        <v>0.5363</v>
-      </c>
-      <c r="H74" s="40">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="I74" s="39">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="J74" s="39">
-        <v>0.502</v>
-      </c>
-      <c r="K74" s="39">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="L74" s="65">
-        <v>0.48720000000000002</v>
-      </c>
-      <c r="M74" s="65">
-        <v>0.4849</v>
-      </c>
-      <c r="N74" s="77">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="3"/>
-      <c r="C75" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="9">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0.50449999999999995</v>
-      </c>
-      <c r="F75" s="27">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="G75" s="27">
-        <v>0.48480000000000001</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="I75" s="23">
-        <v>0.54349999999999998</v>
-      </c>
-      <c r="J75" s="8">
-        <v>0.52190000000000003</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0.50490000000000002</v>
-      </c>
-      <c r="L75" s="16">
-        <v>0.52</v>
-      </c>
-      <c r="M75" s="27">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="N75" s="76">
-        <v>0.51370000000000005</v>
-      </c>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="3"/>
-      <c r="C76" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0.4471</v>
-      </c>
-      <c r="F76" s="38">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="G76" s="38">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="H76" s="39">
-        <v>0.51470000000000005</v>
-      </c>
-      <c r="I76" s="39">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="J76" s="40">
-        <v>0.55469999999999997</v>
-      </c>
-      <c r="K76" s="38">
-        <v>0.4753</v>
-      </c>
-      <c r="L76" s="41">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="M76" s="38">
-        <v>0.4733</v>
-      </c>
-      <c r="N76" s="77">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="3"/>
-      <c r="C77" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0.51839999999999997</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0.52910000000000001</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0.53180000000000005</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0.51390000000000002</v>
-      </c>
-      <c r="I77" s="8">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0.50749999999999995</v>
-      </c>
-      <c r="L77" s="16">
-        <v>0.51</v>
-      </c>
-      <c r="M77" s="6">
-        <v>0.50260000000000005</v>
-      </c>
-      <c r="N77" s="76">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="3"/>
-      <c r="C78" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="19">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="E78" s="20">
-        <v>0.51129999999999998</v>
-      </c>
-      <c r="F78" s="65">
-        <v>0.49619999999999997</v>
-      </c>
-      <c r="G78" s="39">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="H78" s="41">
-        <v>0.52929999999999999</v>
-      </c>
-      <c r="I78" s="41">
-        <v>0.52049999999999996</v>
-      </c>
-      <c r="J78" s="39">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="K78" s="39">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="L78" s="65">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="M78" s="39">
+      <c r="J90" s="90">
         <v>0.50390000000000001</v>
       </c>
-      <c r="N78" s="77">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="3"/>
-      <c r="C79" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="9">
-        <v>0.42549999999999999</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="G79" s="17">
-        <v>0.47139999999999999</v>
-      </c>
-      <c r="H79" s="27">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I79" s="27">
-        <v>0.4955</v>
-      </c>
-      <c r="J79" s="8">
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="K79" s="8">
-        <v>0.53659999999999997</v>
-      </c>
-      <c r="L79" s="8">
-        <v>0.53129999999999999</v>
-      </c>
-      <c r="M79" s="6">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="N79" s="76">
-        <v>0.51129999999999998</v>
-      </c>
-      <c r="T79" s="3"/>
-    </row>
-    <row r="80" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="3"/>
-      <c r="C80" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0.52629999999999999</v>
-      </c>
-      <c r="F80" s="39">
-        <v>0.50560000000000005</v>
-      </c>
-      <c r="G80" s="38">
-        <v>0.47849999999999998</v>
-      </c>
-      <c r="H80" s="39">
-        <v>0.5121</v>
-      </c>
-      <c r="I80" s="65">
-        <v>0.49059999999999998</v>
-      </c>
-      <c r="J80" s="39">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="K80" s="39">
-        <v>0.51959999999999995</v>
-      </c>
-      <c r="L80" s="41">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="M80" s="39">
-        <v>0.51190000000000002</v>
-      </c>
-      <c r="N80" s="77">
-        <v>0.51129999999999998</v>
-      </c>
-      <c r="T80" s="3"/>
-    </row>
-    <row r="81" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="3"/>
-      <c r="C81" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0.5302</v>
-      </c>
-      <c r="F81" s="23">
-        <v>0.54430000000000001</v>
-      </c>
-      <c r="G81" s="27">
-        <v>0.49370000000000003</v>
-      </c>
-      <c r="H81" s="23">
-        <v>0.55189999999999995</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0.51070000000000004</v>
-      </c>
-      <c r="J81" s="6">
+      <c r="K90" s="92">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="L90" s="90">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="M90" s="90">
         <v>0.50029999999999997</v>
       </c>
-      <c r="K81" s="6">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="L81" s="17">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="M81" s="17">
-        <v>0.47549999999999998</v>
-      </c>
-      <c r="N81" s="76">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="T81" s="3"/>
-    </row>
-    <row r="82" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="3"/>
-      <c r="C82" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0.34429999999999999</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="G82" s="9">
-        <v>0.43640000000000001</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0.51770000000000005</v>
-      </c>
-      <c r="I82" s="23">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="J82" s="8">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="K82" s="8">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0.50160000000000005</v>
-      </c>
-      <c r="M82" s="27">
-        <v>0.48680000000000001</v>
-      </c>
-      <c r="N82" s="85">
-        <v>0.51</v>
-      </c>
-      <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="3"/>
-      <c r="C83" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="17">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="E83" s="12">
-        <v>0.57040000000000002</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="G83" s="8">
-        <v>0.52259999999999995</v>
-      </c>
-      <c r="H83" s="27">
-        <v>0.48709999999999998</v>
-      </c>
-      <c r="I83" s="8">
-        <v>0.53220000000000001</v>
-      </c>
-      <c r="J83" s="23">
-        <v>0.5504</v>
-      </c>
-      <c r="K83" s="6">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="L83" s="27">
-        <v>0.4965</v>
-      </c>
-      <c r="M83" s="27">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="N83" s="76">
-        <v>0.50990000000000002</v>
-      </c>
-      <c r="T83" s="3"/>
-    </row>
-    <row r="84" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="3"/>
-      <c r="C84" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="26">
-        <v>0.46970000000000001</v>
-      </c>
-      <c r="E84" s="15">
-        <v>0.48780000000000001</v>
-      </c>
-      <c r="F84" s="40">
-        <v>0.54110000000000003</v>
-      </c>
-      <c r="G84" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="H84" s="41">
-        <v>0.52439999999999998</v>
-      </c>
-      <c r="I84" s="39">
-        <v>0.51839999999999997</v>
-      </c>
-      <c r="J84" s="39">
-        <v>0.50980000000000003</v>
-      </c>
-      <c r="K84" s="39">
-        <v>0.51759999999999995</v>
-      </c>
-      <c r="L84" s="40">
-        <v>0.5595</v>
-      </c>
-      <c r="M84" s="65">
-        <v>0.49280000000000002</v>
-      </c>
-      <c r="N84" s="77">
-        <v>0.5081</v>
-      </c>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="3"/>
-      <c r="C85" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="26">
-        <v>0.46129999999999999</v>
-      </c>
-      <c r="E85" s="20">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="F85" s="41">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="G85" s="38">
-        <v>0.47839999999999999</v>
-      </c>
-      <c r="H85" s="39">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="I85" s="39">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="J85" s="65">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="K85" s="39">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="L85" s="41">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="M85" s="65">
-        <v>0.49380000000000002</v>
-      </c>
-      <c r="N85" s="77">
-        <v>0.50380000000000003</v>
-      </c>
-      <c r="T85" s="3"/>
-    </row>
-    <row r="86" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="3"/>
-      <c r="C86" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="9">
-        <v>0.2727</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0.44879999999999998</v>
-      </c>
-      <c r="F86" s="6">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="G86" s="22">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="H86" s="6">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="I86" s="27">
-        <v>0.4899</v>
-      </c>
-      <c r="J86" s="8">
-        <v>0.52839999999999998</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0.51919999999999999</v>
-      </c>
-      <c r="L86" s="6">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="M86" s="27">
-        <v>0.4975</v>
-      </c>
-      <c r="N86" s="76">
-        <v>0.503</v>
-      </c>
-      <c r="T86" s="3"/>
-    </row>
-    <row r="87" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="3"/>
-      <c r="C87" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="9">
-        <v>0.44869999999999999</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F87" s="27">
-        <v>0.4824</v>
-      </c>
-      <c r="G87" s="27">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="H87" s="23">
-        <v>0.54139999999999999</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0.51359999999999995</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0.50949999999999995</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="L87" s="27">
-        <v>0.4864</v>
-      </c>
-      <c r="M87" s="9">
-        <v>0.4461</v>
-      </c>
-      <c r="N87" s="76">
-        <v>0.50239999999999996</v>
-      </c>
-      <c r="T87" s="3"/>
-    </row>
-    <row r="88" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="3"/>
-      <c r="C88" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E88" s="14">
-        <v>0.55759999999999998</v>
-      </c>
-      <c r="F88" s="65">
-        <v>0.4834</v>
-      </c>
-      <c r="G88" s="71">
-        <v>0.44590000000000002</v>
-      </c>
-      <c r="H88" s="39">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="I88" s="39">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="J88" s="65">
-        <v>0.48959999999999998</v>
-      </c>
-      <c r="K88" s="39">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="L88" s="38">
-        <v>0.47649999999999998</v>
-      </c>
-      <c r="M88" s="65">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="N88" s="77">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="T88" s="3"/>
-    </row>
-    <row r="89" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="3"/>
-      <c r="C89" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="8">
-        <v>0.53159999999999996</v>
-      </c>
-      <c r="E89" s="27">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="F89" s="23">
-        <v>0.54569999999999996</v>
-      </c>
-      <c r="G89" s="27">
-        <v>0.4929</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0.50309999999999999</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0.50570000000000004</v>
-      </c>
-      <c r="J89" s="27">
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="K89" s="27">
-        <v>0.49340000000000001</v>
-      </c>
-      <c r="L89" s="27">
-        <v>0.48930000000000001</v>
-      </c>
-      <c r="M89" s="6">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="N89" s="83">
-        <v>0.49919999999999998</v>
-      </c>
-      <c r="T89" s="3"/>
-    </row>
-    <row r="90" spans="2:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="3"/>
-      <c r="C90" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="92">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="E90" s="91">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="F90" s="93">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="G90" s="90">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="H90" s="91">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="I90" s="91">
-        <v>0.50390000000000001</v>
-      </c>
-      <c r="J90" s="93">
-        <v>0.49919999999999998</v>
-      </c>
-      <c r="K90" s="91">
-        <v>0.50780000000000003</v>
-      </c>
-      <c r="L90" s="91">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="M90" s="93">
+      <c r="N90" s="92">
         <v>0.4924</v>
       </c>
-      <c r="N90" s="94">
+      <c r="O90" s="93">
         <v>0.49909999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C77" r:id="rId1" display="https://clantools.us/servers/na/players?id=1000075064&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
@@ -5098,7 +5402,7 @@
     <hyperlink ref="C19" r:id="rId53" display="https://clantools.us/servers/na/players?id=1009987474&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C18" r:id="rId54" display="https://clantools.us/servers/na/players?id=1007338570&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C14" r:id="rId55" display="https://clantools.us/servers/na/players?id=1004001099&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
-    <hyperlink ref="C70" r:id="rId56" display="https://clantools.us/servers/na/players?id=1000746867&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
+    <hyperlink ref="C71" r:id="rId56" display="https://clantools.us/servers/na/players?id=1000746867&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C46" r:id="rId57" display="https://clantools.us/servers/na/players?id=1001269268&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C51" r:id="rId58" display="https://clantools.us/servers/na/players?id=1006175467&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C89" r:id="rId59" display="https://clantools.us/servers/na/players?id=1003659922&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
@@ -5125,7 +5429,7 @@
     <hyperlink ref="C59" r:id="rId80" display="https://clantools.us/servers/na/players?id=1001182707&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C82" r:id="rId81" display="https://clantools.us/servers/na/players?id=1002399866&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C80" r:id="rId82" display="https://clantools.us/servers/na/players?id=1001661745&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
-    <hyperlink ref="C71" r:id="rId83" display="https://clantools.us/servers/na/players?id=1007225173&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
+    <hyperlink ref="C70" r:id="rId83" display="https://clantools.us/servers/na/players?id=1007225173&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C65" r:id="rId84" display="https://clantools.us/servers/na/players?id=1002782950&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
     <hyperlink ref="C54" r:id="rId85" display="https://clantools.us/servers/na/players?id=1003794145&amp;stats=pubs&amp;tier%5B%5D=5&amp;&amp;&amp;tname="/>
   </hyperlinks>

--- a/RelicStatsExcel.xlsx
+++ b/RelicStatsExcel.xlsx
@@ -1449,7 +1449,7 @@
   <dimension ref="B1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
